--- a/Cleaned_Transformed_Sales_Data.xlsx
+++ b/Cleaned_Transformed_Sales_Data.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:M501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,16 +430,6 @@
           <t>Order Day</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Revenue Per Order</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Product Popularity</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -493,12 +483,6 @@
       <c r="M2">
         <v>31</v>
       </c>
-      <c r="N2">
-        <v>333.78</v>
-      </c>
-      <c r="O2">
-        <v>21</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -552,12 +536,6 @@
       <c r="M3">
         <v>20</v>
       </c>
-      <c r="N3">
-        <v>383.2</v>
-      </c>
-      <c r="O3">
-        <v>15</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -611,12 +589,6 @@
       <c r="M4">
         <v>8</v>
       </c>
-      <c r="N4">
-        <v>399.4875</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -670,12 +642,6 @@
       <c r="M5">
         <v>14</v>
       </c>
-      <c r="N5">
-        <v>300.4333333333333</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -729,12 +695,6 @@
       <c r="M6">
         <v>30</v>
       </c>
-      <c r="N6">
-        <v>406.2044444444444</v>
-      </c>
-      <c r="O6">
-        <v>9</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -788,12 +748,6 @@
       <c r="M7">
         <v>14</v>
       </c>
-      <c r="N7">
-        <v>142.15</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -847,12 +801,6 @@
       <c r="M8">
         <v>16</v>
       </c>
-      <c r="N8">
-        <v>418.3477777777778</v>
-      </c>
-      <c r="O8">
-        <v>9</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -906,12 +854,6 @@
       <c r="M9">
         <v>23</v>
       </c>
-      <c r="N9">
-        <v>212.25</v>
-      </c>
-      <c r="O9">
-        <v>21</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -965,12 +907,6 @@
       <c r="M10">
         <v>21</v>
       </c>
-      <c r="N10">
-        <v>70.97750000000001</v>
-      </c>
-      <c r="O10">
-        <v>12</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1024,12 +960,6 @@
       <c r="M11">
         <v>15</v>
       </c>
-      <c r="N11">
-        <v>57.7425</v>
-      </c>
-      <c r="O11">
-        <v>8</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1083,12 +1013,6 @@
       <c r="M12">
         <v>8</v>
       </c>
-      <c r="N12">
-        <v>416.57</v>
-      </c>
-      <c r="O12">
-        <v>33</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,12 +1066,6 @@
       <c r="M13">
         <v>14</v>
       </c>
-      <c r="N13">
-        <v>43.27454545454545</v>
-      </c>
-      <c r="O13">
-        <v>21</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1201,12 +1119,6 @@
       <c r="M14">
         <v>24</v>
       </c>
-      <c r="N14">
-        <v>56.97499999999999</v>
-      </c>
-      <c r="O14">
-        <v>18</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1260,12 +1172,6 @@
       <c r="M15">
         <v>26</v>
       </c>
-      <c r="N15">
-        <v>80.28818181818181</v>
-      </c>
-      <c r="O15">
-        <v>11</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1319,12 +1225,6 @@
       <c r="M16">
         <v>15</v>
       </c>
-      <c r="N16">
-        <v>42.095</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1378,12 +1278,6 @@
       <c r="M17">
         <v>12</v>
       </c>
-      <c r="N17">
-        <v>272.1015</v>
-      </c>
-      <c r="O17">
-        <v>20</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1437,12 +1331,6 @@
       <c r="M18">
         <v>20</v>
       </c>
-      <c r="N18">
-        <v>466.0184615384615</v>
-      </c>
-      <c r="O18">
-        <v>13</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1496,12 +1384,6 @@
       <c r="M19">
         <v>14</v>
       </c>
-      <c r="N19">
-        <v>499.1654545454545</v>
-      </c>
-      <c r="O19">
-        <v>11</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1555,12 +1437,6 @@
       <c r="M20">
         <v>21</v>
       </c>
-      <c r="N20">
-        <v>377.0523076923077</v>
-      </c>
-      <c r="O20">
-        <v>13</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1614,12 +1490,6 @@
       <c r="M21">
         <v>15</v>
       </c>
-      <c r="N21">
-        <v>188.2</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1673,12 +1543,6 @@
       <c r="M22">
         <v>9</v>
       </c>
-      <c r="N22">
-        <v>33.56357142857143</v>
-      </c>
-      <c r="O22">
-        <v>24</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1732,12 +1596,6 @@
       <c r="M23">
         <v>30</v>
       </c>
-      <c r="N23">
-        <v>385.0875</v>
-      </c>
-      <c r="O23">
-        <v>11</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1791,12 +1649,6 @@
       <c r="M24">
         <v>14</v>
       </c>
-      <c r="N24">
-        <v>399.3742857142857</v>
-      </c>
-      <c r="O24">
-        <v>7</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1850,12 +1702,6 @@
       <c r="M25">
         <v>11</v>
       </c>
-      <c r="N25">
-        <v>459.316</v>
-      </c>
-      <c r="O25">
-        <v>24</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1909,12 +1755,6 @@
       <c r="M26">
         <v>16</v>
       </c>
-      <c r="N26">
-        <v>119.952</v>
-      </c>
-      <c r="O26">
-        <v>34</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1968,12 +1808,6 @@
       <c r="M27">
         <v>24</v>
       </c>
-      <c r="N27">
-        <v>48.6905</v>
-      </c>
-      <c r="O27">
-        <v>33</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2027,12 +1861,6 @@
       <c r="M28">
         <v>6</v>
       </c>
-      <c r="N28">
-        <v>56.975</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2086,12 +1914,6 @@
       <c r="M29">
         <v>5</v>
       </c>
-      <c r="N29">
-        <v>277.9544444444444</v>
-      </c>
-      <c r="O29">
-        <v>18</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2145,12 +1967,6 @@
       <c r="M30">
         <v>9</v>
       </c>
-      <c r="N30">
-        <v>292.9373684210527</v>
-      </c>
-      <c r="O30">
-        <v>19</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2204,12 +2020,6 @@
       <c r="M31">
         <v>5</v>
       </c>
-      <c r="N31">
-        <v>212.7778571428571</v>
-      </c>
-      <c r="O31">
-        <v>34</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2263,12 +2073,6 @@
       <c r="M32">
         <v>17</v>
       </c>
-      <c r="N32">
-        <v>482.4623076923077</v>
-      </c>
-      <c r="O32">
-        <v>22</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2322,12 +2126,6 @@
       <c r="M33">
         <v>6</v>
       </c>
-      <c r="N33">
-        <v>175.108</v>
-      </c>
-      <c r="O33">
-        <v>5</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2381,12 +2179,6 @@
       <c r="M34">
         <v>24</v>
       </c>
-      <c r="N34">
-        <v>399.0375</v>
-      </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2440,12 +2232,6 @@
       <c r="M35">
         <v>12</v>
       </c>
-      <c r="N35">
-        <v>200.600625</v>
-      </c>
-      <c r="O35">
-        <v>45</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2499,12 +2285,6 @@
       <c r="M36">
         <v>28</v>
       </c>
-      <c r="N36">
-        <v>272.6421428571429</v>
-      </c>
-      <c r="O36">
-        <v>31</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2558,12 +2338,6 @@
       <c r="M37">
         <v>12</v>
       </c>
-      <c r="N37">
-        <v>229.7033333333333</v>
-      </c>
-      <c r="O37">
-        <v>13</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2617,12 +2391,6 @@
       <c r="M38">
         <v>15</v>
       </c>
-      <c r="N38">
-        <v>337.598</v>
-      </c>
-      <c r="O38">
-        <v>21</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2676,12 +2444,6 @@
       <c r="M39">
         <v>24</v>
       </c>
-      <c r="N39">
-        <v>30.5365</v>
-      </c>
-      <c r="O39">
-        <v>20</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2735,12 +2497,6 @@
       <c r="M40">
         <v>27</v>
       </c>
-      <c r="N40">
-        <v>141.611</v>
-      </c>
-      <c r="O40">
-        <v>10</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2794,12 +2550,6 @@
       <c r="M41">
         <v>8</v>
       </c>
-      <c r="N41">
-        <v>120.69</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2853,12 +2603,6 @@
       <c r="M42">
         <v>14</v>
       </c>
-      <c r="N42">
-        <v>260.9838461538462</v>
-      </c>
-      <c r="O42">
-        <v>22</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2912,12 +2656,6 @@
       <c r="M43">
         <v>8</v>
       </c>
-      <c r="N43">
-        <v>145.6268421052631</v>
-      </c>
-      <c r="O43">
-        <v>22</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2971,12 +2709,6 @@
       <c r="M44">
         <v>4</v>
       </c>
-      <c r="N44">
-        <v>334.81</v>
-      </c>
-      <c r="O44">
-        <v>8</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3030,12 +2762,6 @@
       <c r="M45">
         <v>22</v>
       </c>
-      <c r="N45">
-        <v>441.97</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3089,12 +2815,6 @@
       <c r="M46">
         <v>17</v>
       </c>
-      <c r="N46">
-        <v>157.4331578947368</v>
-      </c>
-      <c r="O46">
-        <v>19</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3148,12 +2868,6 @@
       <c r="M47">
         <v>28</v>
       </c>
-      <c r="N47">
-        <v>468.17</v>
-      </c>
-      <c r="O47">
-        <v>23</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3207,12 +2921,6 @@
       <c r="M48">
         <v>10</v>
       </c>
-      <c r="N48">
-        <v>436.7142105263158</v>
-      </c>
-      <c r="O48">
-        <v>19</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3266,12 +2974,6 @@
       <c r="M49">
         <v>2</v>
       </c>
-      <c r="N49">
-        <v>263.3478571428572</v>
-      </c>
-      <c r="O49">
-        <v>52</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3325,12 +3027,6 @@
       <c r="M50">
         <v>6</v>
       </c>
-      <c r="N50">
-        <v>149.4658333333333</v>
-      </c>
-      <c r="O50">
-        <v>12</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3384,12 +3080,6 @@
       <c r="M51">
         <v>4</v>
       </c>
-      <c r="N51">
-        <v>167.5385714285714</v>
-      </c>
-      <c r="O51">
-        <v>14</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3443,12 +3133,6 @@
       <c r="M52">
         <v>6</v>
       </c>
-      <c r="N52">
-        <v>358.35</v>
-      </c>
-      <c r="O52">
-        <v>21</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3502,12 +3186,6 @@
       <c r="M53">
         <v>3</v>
       </c>
-      <c r="N53">
-        <v>235.901</v>
-      </c>
-      <c r="O53">
-        <v>30</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3561,12 +3239,6 @@
       <c r="M54">
         <v>4</v>
       </c>
-      <c r="N54">
-        <v>118.7094444444444</v>
-      </c>
-      <c r="O54">
-        <v>29</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3620,12 +3292,6 @@
       <c r="M55">
         <v>26</v>
       </c>
-      <c r="N55">
-        <v>27.09</v>
-      </c>
-      <c r="O55">
-        <v>24</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3679,12 +3345,6 @@
       <c r="M56">
         <v>7</v>
       </c>
-      <c r="N56">
-        <v>42.632</v>
-      </c>
-      <c r="O56">
-        <v>22</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3738,12 +3398,6 @@
       <c r="M57">
         <v>2</v>
       </c>
-      <c r="N57">
-        <v>293.0546666666667</v>
-      </c>
-      <c r="O57">
-        <v>70</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3797,12 +3451,6 @@
       <c r="M58">
         <v>11</v>
       </c>
-      <c r="N58">
-        <v>428.0014285714286</v>
-      </c>
-      <c r="O58">
-        <v>7</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3856,12 +3504,6 @@
       <c r="M59">
         <v>12</v>
       </c>
-      <c r="N59">
-        <v>248.2333333333333</v>
-      </c>
-      <c r="O59">
-        <v>20</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3915,12 +3557,6 @@
       <c r="M60">
         <v>13</v>
       </c>
-      <c r="N60">
-        <v>406.25</v>
-      </c>
-      <c r="O60">
-        <v>22</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3974,12 +3610,6 @@
       <c r="M61">
         <v>3</v>
       </c>
-      <c r="N61">
-        <v>417.7535714285714</v>
-      </c>
-      <c r="O61">
-        <v>14</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4033,12 +3663,6 @@
       <c r="M62">
         <v>12</v>
       </c>
-      <c r="N62">
-        <v>78.30684210526316</v>
-      </c>
-      <c r="O62">
-        <v>28</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4092,12 +3716,6 @@
       <c r="M63">
         <v>14</v>
       </c>
-      <c r="N63">
-        <v>256.084</v>
-      </c>
-      <c r="O63">
-        <v>5</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4151,12 +3769,6 @@
       <c r="M64">
         <v>3</v>
       </c>
-      <c r="N64">
-        <v>102.6347368421053</v>
-      </c>
-      <c r="O64">
-        <v>21</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4210,12 +3822,6 @@
       <c r="M65">
         <v>22</v>
       </c>
-      <c r="N65">
-        <v>133.0407692307692</v>
-      </c>
-      <c r="O65">
-        <v>49</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4269,12 +3875,6 @@
       <c r="M66">
         <v>30</v>
       </c>
-      <c r="N66">
-        <v>30.295</v>
-      </c>
-      <c r="O66">
-        <v>21</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4328,12 +3928,6 @@
       <c r="M67">
         <v>23</v>
       </c>
-      <c r="N67">
-        <v>68.76769230769231</v>
-      </c>
-      <c r="O67">
-        <v>27</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4387,12 +3981,6 @@
       <c r="M68">
         <v>13</v>
       </c>
-      <c r="N68">
-        <v>169.79</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4446,12 +4034,6 @@
       <c r="M69">
         <v>6</v>
       </c>
-      <c r="N69">
-        <v>73.61750000000001</v>
-      </c>
-      <c r="O69">
-        <v>22</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4505,12 +4087,6 @@
       <c r="M70">
         <v>10</v>
       </c>
-      <c r="N70">
-        <v>169.0827272727273</v>
-      </c>
-      <c r="O70">
-        <v>11</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4564,12 +4140,6 @@
       <c r="M71">
         <v>2</v>
       </c>
-      <c r="N71">
-        <v>404.55625</v>
-      </c>
-      <c r="O71">
-        <v>21</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4623,12 +4193,6 @@
       <c r="M72">
         <v>8</v>
       </c>
-      <c r="N72">
-        <v>25.74777777777778</v>
-      </c>
-      <c r="O72">
-        <v>11</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4682,12 +4246,6 @@
       <c r="M73">
         <v>5</v>
       </c>
-      <c r="N73">
-        <v>121.1033333333333</v>
-      </c>
-      <c r="O73">
-        <v>25</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4741,12 +4299,6 @@
       <c r="M74">
         <v>12</v>
       </c>
-      <c r="N74">
-        <v>97.87</v>
-      </c>
-      <c r="O74">
-        <v>16</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4800,12 +4352,6 @@
       <c r="M75">
         <v>6</v>
       </c>
-      <c r="N75">
-        <v>410.1833333333333</v>
-      </c>
-      <c r="O75">
-        <v>21</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4859,12 +4405,6 @@
       <c r="M76">
         <v>7</v>
       </c>
-      <c r="N76">
-        <v>496.78</v>
-      </c>
-      <c r="O76">
-        <v>5</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4918,12 +4458,6 @@
       <c r="M77">
         <v>18</v>
       </c>
-      <c r="N77">
-        <v>66.33125</v>
-      </c>
-      <c r="O77">
-        <v>16</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4977,12 +4511,6 @@
       <c r="M78">
         <v>20</v>
       </c>
-      <c r="N78">
-        <v>403.5586666666667</v>
-      </c>
-      <c r="O78">
-        <v>28</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5036,12 +4564,6 @@
       <c r="M79">
         <v>28</v>
       </c>
-      <c r="N79">
-        <v>224.2516666666667</v>
-      </c>
-      <c r="O79">
-        <v>6</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5095,12 +4617,6 @@
       <c r="M80">
         <v>24</v>
       </c>
-      <c r="N80">
-        <v>265.74</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5154,12 +4670,6 @@
       <c r="M81">
         <v>9</v>
       </c>
-      <c r="N81">
-        <v>231.985625</v>
-      </c>
-      <c r="O81">
-        <v>16</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5213,12 +4723,6 @@
       <c r="M82">
         <v>27</v>
       </c>
-      <c r="N82">
-        <v>294.5575</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5272,12 +4776,6 @@
       <c r="M83">
         <v>11</v>
       </c>
-      <c r="N83">
-        <v>16.85</v>
-      </c>
-      <c r="O83">
-        <v>3</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5331,12 +4829,6 @@
       <c r="M84">
         <v>16</v>
       </c>
-      <c r="N84">
-        <v>420.0316666666667</v>
-      </c>
-      <c r="O84">
-        <v>15</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5390,12 +4882,6 @@
       <c r="M85">
         <v>18</v>
       </c>
-      <c r="N85">
-        <v>480.7722222222222</v>
-      </c>
-      <c r="O85">
-        <v>18</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5449,12 +4935,6 @@
       <c r="M86">
         <v>5</v>
       </c>
-      <c r="N86">
-        <v>334.5175</v>
-      </c>
-      <c r="O86">
-        <v>25</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5508,12 +4988,6 @@
       <c r="M87">
         <v>24</v>
       </c>
-      <c r="N87">
-        <v>303.5733333333333</v>
-      </c>
-      <c r="O87">
-        <v>6</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5567,12 +5041,6 @@
       <c r="M88">
         <v>25</v>
       </c>
-      <c r="N88">
-        <v>64.98999999999999</v>
-      </c>
-      <c r="O88">
-        <v>20</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5626,12 +5094,6 @@
       <c r="M89">
         <v>27</v>
       </c>
-      <c r="N89">
-        <v>310.1744444444445</v>
-      </c>
-      <c r="O89">
-        <v>9</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5685,12 +5147,6 @@
       <c r="M90">
         <v>29</v>
       </c>
-      <c r="N90">
-        <v>463.0975</v>
-      </c>
-      <c r="O90">
-        <v>21</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5744,12 +5200,6 @@
       <c r="M91">
         <v>21</v>
       </c>
-      <c r="N91">
-        <v>458.0057142857143</v>
-      </c>
-      <c r="O91">
-        <v>7</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5803,12 +5253,6 @@
       <c r="M92">
         <v>19</v>
       </c>
-      <c r="N92">
-        <v>312.2827272727273</v>
-      </c>
-      <c r="O92">
-        <v>11</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5862,12 +5306,6 @@
       <c r="M93">
         <v>9</v>
       </c>
-      <c r="N93">
-        <v>41.558</v>
-      </c>
-      <c r="O93">
-        <v>5</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5921,12 +5359,6 @@
       <c r="M94">
         <v>8</v>
       </c>
-      <c r="N94">
-        <v>263.1041666666667</v>
-      </c>
-      <c r="O94">
-        <v>12</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5980,12 +5412,6 @@
       <c r="M95">
         <v>21</v>
       </c>
-      <c r="N95">
-        <v>274.31</v>
-      </c>
-      <c r="O95">
-        <v>21</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6039,12 +5465,6 @@
       <c r="M96">
         <v>19</v>
       </c>
-      <c r="N96">
-        <v>77.60764705882353</v>
-      </c>
-      <c r="O96">
-        <v>20</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6098,12 +5518,6 @@
       <c r="M97">
         <v>27</v>
       </c>
-      <c r="N97">
-        <v>275.98</v>
-      </c>
-      <c r="O97">
-        <v>29</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6157,12 +5571,6 @@
       <c r="M98">
         <v>17</v>
       </c>
-      <c r="N98">
-        <v>192.3678571428572</v>
-      </c>
-      <c r="O98">
-        <v>32</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6216,12 +5624,6 @@
       <c r="M99">
         <v>19</v>
       </c>
-      <c r="N99">
-        <v>24.87</v>
-      </c>
-      <c r="O99">
-        <v>18</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6275,12 +5677,6 @@
       <c r="M100">
         <v>23</v>
       </c>
-      <c r="N100">
-        <v>459.4494736842105</v>
-      </c>
-      <c r="O100">
-        <v>19</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6334,12 +5730,6 @@
       <c r="M101">
         <v>26</v>
       </c>
-      <c r="N101">
-        <v>343.4585714285714</v>
-      </c>
-      <c r="O101">
-        <v>13</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6393,12 +5783,6 @@
       <c r="M102">
         <v>21</v>
       </c>
-      <c r="N102">
-        <v>250.02</v>
-      </c>
-      <c r="O102">
-        <v>22</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6452,12 +5836,6 @@
       <c r="M103">
         <v>13</v>
       </c>
-      <c r="N103">
-        <v>188.5278947368421</v>
-      </c>
-      <c r="O103">
-        <v>19</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6511,12 +5889,6 @@
       <c r="M104">
         <v>6</v>
       </c>
-      <c r="N104">
-        <v>25.45928571428572</v>
-      </c>
-      <c r="O104">
-        <v>20</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6570,12 +5942,6 @@
       <c r="M105">
         <v>25</v>
       </c>
-      <c r="N105">
-        <v>484.82</v>
-      </c>
-      <c r="O105">
-        <v>9</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6629,12 +5995,6 @@
       <c r="M106">
         <v>2</v>
       </c>
-      <c r="N106">
-        <v>117.434</v>
-      </c>
-      <c r="O106">
-        <v>5</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6688,12 +6048,6 @@
       <c r="M107">
         <v>10</v>
       </c>
-      <c r="N107">
-        <v>220.465</v>
-      </c>
-      <c r="O107">
-        <v>12</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6747,12 +6101,6 @@
       <c r="M108">
         <v>11</v>
       </c>
-      <c r="N108">
-        <v>198.4115</v>
-      </c>
-      <c r="O108">
-        <v>20</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6806,12 +6154,6 @@
       <c r="M109">
         <v>14</v>
       </c>
-      <c r="N109">
-        <v>229.036</v>
-      </c>
-      <c r="O109">
-        <v>29</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6865,12 +6207,6 @@
       <c r="M110">
         <v>17</v>
       </c>
-      <c r="N110">
-        <v>349.0925</v>
-      </c>
-      <c r="O110">
-        <v>8</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6924,12 +6260,6 @@
       <c r="M111">
         <v>1</v>
       </c>
-      <c r="N111">
-        <v>459.174705882353</v>
-      </c>
-      <c r="O111">
-        <v>17</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6983,12 +6313,6 @@
       <c r="M112">
         <v>9</v>
       </c>
-      <c r="N112">
-        <v>22.30833333333333</v>
-      </c>
-      <c r="O112">
-        <v>18</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7042,12 +6366,6 @@
       <c r="M113">
         <v>24</v>
       </c>
-      <c r="N113">
-        <v>25.23555555555556</v>
-      </c>
-      <c r="O113">
-        <v>21</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7101,12 +6419,6 @@
       <c r="M114">
         <v>1</v>
       </c>
-      <c r="N114">
-        <v>262.013</v>
-      </c>
-      <c r="O114">
-        <v>40</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7160,12 +6472,6 @@
       <c r="M115">
         <v>8</v>
       </c>
-      <c r="N115">
-        <v>80.97736842105263</v>
-      </c>
-      <c r="O115">
-        <v>70</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7219,12 +6525,6 @@
       <c r="M116">
         <v>2</v>
       </c>
-      <c r="N116">
-        <v>401.5016666666667</v>
-      </c>
-      <c r="O116">
-        <v>13</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7278,12 +6578,6 @@
       <c r="M117">
         <v>10</v>
       </c>
-      <c r="N117">
-        <v>435.76</v>
-      </c>
-      <c r="O117">
-        <v>10</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7337,12 +6631,6 @@
       <c r="M118">
         <v>29</v>
       </c>
-      <c r="N118">
-        <v>294.321</v>
-      </c>
-      <c r="O118">
-        <v>10</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7396,12 +6684,6 @@
       <c r="M119">
         <v>3</v>
       </c>
-      <c r="N119">
-        <v>375.1214285714286</v>
-      </c>
-      <c r="O119">
-        <v>17</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7455,12 +6737,6 @@
       <c r="M120">
         <v>22</v>
       </c>
-      <c r="N120">
-        <v>323.055</v>
-      </c>
-      <c r="O120">
-        <v>18</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7514,12 +6790,6 @@
       <c r="M121">
         <v>21</v>
       </c>
-      <c r="N121">
-        <v>485.9984210526316</v>
-      </c>
-      <c r="O121">
-        <v>25</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7573,12 +6843,6 @@
       <c r="M122">
         <v>29</v>
       </c>
-      <c r="N122">
-        <v>385.1083333333333</v>
-      </c>
-      <c r="O122">
-        <v>21</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7632,12 +6896,6 @@
       <c r="M123">
         <v>5</v>
       </c>
-      <c r="N123">
-        <v>59.2775</v>
-      </c>
-      <c r="O123">
-        <v>8</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7691,12 +6949,6 @@
       <c r="M124">
         <v>3</v>
       </c>
-      <c r="N124">
-        <v>465.204</v>
-      </c>
-      <c r="O124">
-        <v>20</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7750,12 +7002,6 @@
       <c r="M125">
         <v>16</v>
       </c>
-      <c r="N125">
-        <v>237.342</v>
-      </c>
-      <c r="O125">
-        <v>25</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7809,12 +7055,6 @@
       <c r="M126">
         <v>28</v>
       </c>
-      <c r="N126">
-        <v>377.215</v>
-      </c>
-      <c r="O126">
-        <v>2</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7868,12 +7108,6 @@
       <c r="M127">
         <v>4</v>
       </c>
-      <c r="N127">
-        <v>105.0833333333333</v>
-      </c>
-      <c r="O127">
-        <v>3</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7927,12 +7161,6 @@
       <c r="M128">
         <v>14</v>
       </c>
-      <c r="N128">
-        <v>15.95588235294118</v>
-      </c>
-      <c r="O128">
-        <v>22</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7986,12 +7214,6 @@
       <c r="M129">
         <v>6</v>
       </c>
-      <c r="N129">
-        <v>77.39666666666668</v>
-      </c>
-      <c r="O129">
-        <v>9</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8045,12 +7267,6 @@
       <c r="M130">
         <v>4</v>
       </c>
-      <c r="N130">
-        <v>372.7175</v>
-      </c>
-      <c r="O130">
-        <v>8</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8104,12 +7320,6 @@
       <c r="M131">
         <v>11</v>
       </c>
-      <c r="N131">
-        <v>368.14</v>
-      </c>
-      <c r="O131">
-        <v>18</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8163,12 +7373,6 @@
       <c r="M132">
         <v>13</v>
       </c>
-      <c r="N132">
-        <v>449.487</v>
-      </c>
-      <c r="O132">
-        <v>25</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8222,12 +7426,6 @@
       <c r="M133">
         <v>16</v>
       </c>
-      <c r="N133">
-        <v>213.7895</v>
-      </c>
-      <c r="O133">
-        <v>56</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8281,12 +7479,6 @@
       <c r="M134">
         <v>27</v>
       </c>
-      <c r="N134">
-        <v>409.7825</v>
-      </c>
-      <c r="O134">
-        <v>4</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8340,12 +7532,6 @@
       <c r="M135">
         <v>31</v>
       </c>
-      <c r="N135">
-        <v>208.2733333333333</v>
-      </c>
-      <c r="O135">
-        <v>3</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8399,12 +7585,6 @@
       <c r="M136">
         <v>30</v>
       </c>
-      <c r="N136">
-        <v>100.8361111111111</v>
-      </c>
-      <c r="O136">
-        <v>18</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8458,12 +7638,6 @@
       <c r="M137">
         <v>22</v>
       </c>
-      <c r="N137">
-        <v>449.1376470588235</v>
-      </c>
-      <c r="O137">
-        <v>17</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8517,12 +7691,6 @@
       <c r="M138">
         <v>19</v>
       </c>
-      <c r="N138">
-        <v>118.8246153846154</v>
-      </c>
-      <c r="O138">
-        <v>13</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8576,12 +7744,6 @@
       <c r="M139">
         <v>30</v>
       </c>
-      <c r="N139">
-        <v>258.0775</v>
-      </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8635,12 +7797,6 @@
       <c r="M140">
         <v>7</v>
       </c>
-      <c r="N140">
-        <v>375.1957142857142</v>
-      </c>
-      <c r="O140">
-        <v>7</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8694,12 +7850,6 @@
       <c r="M141">
         <v>23</v>
       </c>
-      <c r="N141">
-        <v>199.455</v>
-      </c>
-      <c r="O141">
-        <v>15</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8753,12 +7903,6 @@
       <c r="M142">
         <v>10</v>
       </c>
-      <c r="N142">
-        <v>63.794</v>
-      </c>
-      <c r="O142">
-        <v>15</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8812,12 +7956,6 @@
       <c r="M143">
         <v>2</v>
       </c>
-      <c r="N143">
-        <v>197.5126315789473</v>
-      </c>
-      <c r="O143">
-        <v>19</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8871,12 +8009,6 @@
       <c r="M144">
         <v>1</v>
       </c>
-      <c r="N144">
-        <v>24.01833333333333</v>
-      </c>
-      <c r="O144">
-        <v>6</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8930,12 +8062,6 @@
       <c r="M145">
         <v>2</v>
       </c>
-      <c r="N145">
-        <v>251.48</v>
-      </c>
-      <c r="O145">
-        <v>3</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8989,12 +8115,6 @@
       <c r="M146">
         <v>12</v>
       </c>
-      <c r="N146">
-        <v>199.5015384615385</v>
-      </c>
-      <c r="O146">
-        <v>33</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9048,12 +8168,6 @@
       <c r="M147">
         <v>20</v>
       </c>
-      <c r="N147">
-        <v>246.34375</v>
-      </c>
-      <c r="O147">
-        <v>27</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9107,12 +8221,6 @@
       <c r="M148">
         <v>17</v>
       </c>
-      <c r="N148">
-        <v>269.0875</v>
-      </c>
-      <c r="O148">
-        <v>23</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9166,12 +8274,6 @@
       <c r="M149">
         <v>29</v>
       </c>
-      <c r="N149">
-        <v>338.49</v>
-      </c>
-      <c r="O149">
-        <v>1</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9225,12 +8327,6 @@
       <c r="M150">
         <v>6</v>
       </c>
-      <c r="N150">
-        <v>421.1964285714286</v>
-      </c>
-      <c r="O150">
-        <v>27</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9284,12 +8380,6 @@
       <c r="M151">
         <v>29</v>
       </c>
-      <c r="N151">
-        <v>114.3933333333333</v>
-      </c>
-      <c r="O151">
-        <v>3</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9343,12 +8433,6 @@
       <c r="M152">
         <v>6</v>
       </c>
-      <c r="N152">
-        <v>471.2272222222222</v>
-      </c>
-      <c r="O152">
-        <v>22</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9402,12 +8486,6 @@
       <c r="M153">
         <v>20</v>
       </c>
-      <c r="N153">
-        <v>420.9521428571429</v>
-      </c>
-      <c r="O153">
-        <v>14</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9461,12 +8539,6 @@
       <c r="M154">
         <v>10</v>
       </c>
-      <c r="N154">
-        <v>85.34888888888889</v>
-      </c>
-      <c r="O154">
-        <v>20</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9520,12 +8592,6 @@
       <c r="M155">
         <v>6</v>
       </c>
-      <c r="N155">
-        <v>431.756</v>
-      </c>
-      <c r="O155">
-        <v>5</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9579,12 +8645,6 @@
       <c r="M156">
         <v>2</v>
       </c>
-      <c r="N156">
-        <v>117.1781818181818</v>
-      </c>
-      <c r="O156">
-        <v>11</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9638,12 +8698,6 @@
       <c r="M157">
         <v>14</v>
       </c>
-      <c r="N157">
-        <v>433.24625</v>
-      </c>
-      <c r="O157">
-        <v>16</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9697,12 +8751,6 @@
       <c r="M158">
         <v>8</v>
       </c>
-      <c r="N158">
-        <v>56.47375</v>
-      </c>
-      <c r="O158">
-        <v>16</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9756,12 +8804,6 @@
       <c r="M159">
         <v>15</v>
       </c>
-      <c r="N159">
-        <v>118.3525</v>
-      </c>
-      <c r="O159">
-        <v>4</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9815,12 +8857,6 @@
       <c r="M160">
         <v>26</v>
       </c>
-      <c r="N160">
-        <v>384.7925</v>
-      </c>
-      <c r="O160">
-        <v>4</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9874,12 +8910,6 @@
       <c r="M161">
         <v>12</v>
       </c>
-      <c r="N161">
-        <v>59.7</v>
-      </c>
-      <c r="O161">
-        <v>21</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9933,12 +8963,6 @@
       <c r="M162">
         <v>12</v>
       </c>
-      <c r="N162">
-        <v>265.495</v>
-      </c>
-      <c r="O162">
-        <v>2</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9992,12 +9016,6 @@
       <c r="M163">
         <v>13</v>
       </c>
-      <c r="N163">
-        <v>456.6475</v>
-      </c>
-      <c r="O163">
-        <v>8</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10051,12 +9069,6 @@
       <c r="M164">
         <v>8</v>
       </c>
-      <c r="N164">
-        <v>416.2575</v>
-      </c>
-      <c r="O164">
-        <v>8</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10110,12 +9122,6 @@
       <c r="M165">
         <v>23</v>
       </c>
-      <c r="N165">
-        <v>457.14</v>
-      </c>
-      <c r="O165">
-        <v>30</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10169,12 +9175,6 @@
       <c r="M166">
         <v>8</v>
       </c>
-      <c r="N166">
-        <v>321.44</v>
-      </c>
-      <c r="O166">
-        <v>13</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10228,12 +9228,6 @@
       <c r="M167">
         <v>11</v>
       </c>
-      <c r="N167">
-        <v>147.762</v>
-      </c>
-      <c r="O167">
-        <v>23</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10287,12 +9281,6 @@
       <c r="M168">
         <v>29</v>
       </c>
-      <c r="N168">
-        <v>475.3705</v>
-      </c>
-      <c r="O168">
-        <v>30</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10346,12 +9334,6 @@
       <c r="M169">
         <v>18</v>
       </c>
-      <c r="N169">
-        <v>82.13</v>
-      </c>
-      <c r="O169">
-        <v>8</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10405,12 +9387,6 @@
       <c r="M170">
         <v>1</v>
       </c>
-      <c r="N170">
-        <v>46.03466666666667</v>
-      </c>
-      <c r="O170">
-        <v>15</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10464,12 +9440,6 @@
       <c r="M171">
         <v>17</v>
       </c>
-      <c r="N171">
-        <v>429.0873333333333</v>
-      </c>
-      <c r="O171">
-        <v>15</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10523,12 +9493,6 @@
       <c r="M172">
         <v>20</v>
       </c>
-      <c r="N172">
-        <v>15.578125</v>
-      </c>
-      <c r="O172">
-        <v>27</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10582,12 +9546,6 @@
       <c r="M173">
         <v>30</v>
       </c>
-      <c r="N173">
-        <v>305.018</v>
-      </c>
-      <c r="O173">
-        <v>22</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10641,12 +9599,6 @@
       <c r="M174">
         <v>30</v>
       </c>
-      <c r="N174">
-        <v>382.9329411764706</v>
-      </c>
-      <c r="O174">
-        <v>22</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10700,12 +9652,6 @@
       <c r="M175">
         <v>11</v>
       </c>
-      <c r="N175">
-        <v>27.43</v>
-      </c>
-      <c r="O175">
-        <v>3</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10759,12 +9705,6 @@
       <c r="M176">
         <v>8</v>
       </c>
-      <c r="N176">
-        <v>389.197</v>
-      </c>
-      <c r="O176">
-        <v>20</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10818,12 +9758,6 @@
       <c r="M177">
         <v>3</v>
       </c>
-      <c r="N177">
-        <v>271.4371428571429</v>
-      </c>
-      <c r="O177">
-        <v>8</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10877,12 +9811,6 @@
       <c r="M178">
         <v>9</v>
       </c>
-      <c r="N178">
-        <v>71.22333333333333</v>
-      </c>
-      <c r="O178">
-        <v>6</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10936,12 +9864,6 @@
       <c r="M179">
         <v>21</v>
       </c>
-      <c r="N179">
-        <v>447.5770588235295</v>
-      </c>
-      <c r="O179">
-        <v>17</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10995,12 +9917,6 @@
       <c r="M180">
         <v>24</v>
       </c>
-      <c r="N180">
-        <v>236.7933333333333</v>
-      </c>
-      <c r="O180">
-        <v>28</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11054,12 +9970,6 @@
       <c r="M181">
         <v>27</v>
       </c>
-      <c r="N181">
-        <v>332.7</v>
-      </c>
-      <c r="O181">
-        <v>6</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11113,12 +10023,6 @@
       <c r="M182">
         <v>2</v>
       </c>
-      <c r="N182">
-        <v>26.49833333333333</v>
-      </c>
-      <c r="O182">
-        <v>40</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11172,12 +10076,6 @@
       <c r="M183">
         <v>18</v>
       </c>
-      <c r="N183">
-        <v>448.3494444444444</v>
-      </c>
-      <c r="O183">
-        <v>18</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11231,12 +10129,6 @@
       <c r="M184">
         <v>1</v>
       </c>
-      <c r="N184">
-        <v>149.461</v>
-      </c>
-      <c r="O184">
-        <v>10</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11290,12 +10182,6 @@
       <c r="M185">
         <v>15</v>
       </c>
-      <c r="N185">
-        <v>339.9126666666667</v>
-      </c>
-      <c r="O185">
-        <v>52</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11349,12 +10235,6 @@
       <c r="M186">
         <v>4</v>
       </c>
-      <c r="N186">
-        <v>266.3027777777777</v>
-      </c>
-      <c r="O186">
-        <v>18</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11408,12 +10288,6 @@
       <c r="M187">
         <v>11</v>
       </c>
-      <c r="N187">
-        <v>104.7414285714286</v>
-      </c>
-      <c r="O187">
-        <v>14</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11467,12 +10341,6 @@
       <c r="M188">
         <v>4</v>
       </c>
-      <c r="N188">
-        <v>482.3384210526316</v>
-      </c>
-      <c r="O188">
-        <v>19</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11526,12 +10394,6 @@
       <c r="M189">
         <v>28</v>
       </c>
-      <c r="N189">
-        <v>139.5578571428571</v>
-      </c>
-      <c r="O189">
-        <v>25</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11585,12 +10447,6 @@
       <c r="M190">
         <v>9</v>
       </c>
-      <c r="N190">
-        <v>250.38</v>
-      </c>
-      <c r="O190">
-        <v>21</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11644,12 +10500,6 @@
       <c r="M191">
         <v>10</v>
       </c>
-      <c r="N191">
-        <v>321.395</v>
-      </c>
-      <c r="O191">
-        <v>22</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11703,12 +10553,6 @@
       <c r="M192">
         <v>28</v>
       </c>
-      <c r="N192">
-        <v>105.4983333333333</v>
-      </c>
-      <c r="O192">
-        <v>12</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11762,12 +10606,6 @@
       <c r="M193">
         <v>30</v>
       </c>
-      <c r="N193">
-        <v>42.62933333333334</v>
-      </c>
-      <c r="O193">
-        <v>30</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11821,12 +10659,6 @@
       <c r="M194">
         <v>29</v>
       </c>
-      <c r="N194">
-        <v>344.021</v>
-      </c>
-      <c r="O194">
-        <v>10</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11880,12 +10712,6 @@
       <c r="M195">
         <v>21</v>
       </c>
-      <c r="N195">
-        <v>411.1983333333333</v>
-      </c>
-      <c r="O195">
-        <v>6</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11939,12 +10765,6 @@
       <c r="M196">
         <v>4</v>
       </c>
-      <c r="N196">
-        <v>401.2071428571429</v>
-      </c>
-      <c r="O196">
-        <v>34</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11998,12 +10818,6 @@
       <c r="M197">
         <v>16</v>
       </c>
-      <c r="N197">
-        <v>387.115</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12057,12 +10871,6 @@
       <c r="M198">
         <v>14</v>
       </c>
-      <c r="N198">
-        <v>42.346</v>
-      </c>
-      <c r="O198">
-        <v>20</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12116,12 +10924,6 @@
       <c r="M199">
         <v>17</v>
       </c>
-      <c r="N199">
-        <v>240.6025</v>
-      </c>
-      <c r="O199">
-        <v>16</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12175,12 +10977,6 @@
       <c r="M200">
         <v>24</v>
       </c>
-      <c r="N200">
-        <v>368.16</v>
-      </c>
-      <c r="O200">
-        <v>3</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12234,12 +11030,6 @@
       <c r="M201">
         <v>29</v>
       </c>
-      <c r="N201">
-        <v>59.61900000000001</v>
-      </c>
-      <c r="O201">
-        <v>21</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12293,12 +11083,6 @@
       <c r="M202">
         <v>28</v>
       </c>
-      <c r="N202">
-        <v>306.23</v>
-      </c>
-      <c r="O202">
-        <v>11</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12352,12 +11136,6 @@
       <c r="M203">
         <v>1</v>
       </c>
-      <c r="N203">
-        <v>136.8742857142857</v>
-      </c>
-      <c r="O203">
-        <v>14</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12411,12 +11189,6 @@
       <c r="M204">
         <v>15</v>
       </c>
-      <c r="N204">
-        <v>251.2435</v>
-      </c>
-      <c r="O204">
-        <v>20</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12470,12 +11242,6 @@
       <c r="M205">
         <v>20</v>
       </c>
-      <c r="N205">
-        <v>413.31</v>
-      </c>
-      <c r="O205">
-        <v>13</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12529,12 +11295,6 @@
       <c r="M206">
         <v>10</v>
       </c>
-      <c r="N206">
-        <v>246.645</v>
-      </c>
-      <c r="O206">
-        <v>18</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12588,12 +11348,6 @@
       <c r="M207">
         <v>29</v>
       </c>
-      <c r="N207">
-        <v>101.68</v>
-      </c>
-      <c r="O207">
-        <v>19</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12647,12 +11401,6 @@
       <c r="M208">
         <v>11</v>
       </c>
-      <c r="N208">
-        <v>455.1225</v>
-      </c>
-      <c r="O208">
-        <v>52</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12706,12 +11454,6 @@
       <c r="M209">
         <v>24</v>
       </c>
-      <c r="N209">
-        <v>353.9318181818182</v>
-      </c>
-      <c r="O209">
-        <v>11</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12765,12 +11507,6 @@
       <c r="M210">
         <v>19</v>
       </c>
-      <c r="N210">
-        <v>346.54</v>
-      </c>
-      <c r="O210">
-        <v>15</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12824,12 +11560,6 @@
       <c r="M211">
         <v>3</v>
       </c>
-      <c r="N211">
-        <v>171.1254545454545</v>
-      </c>
-      <c r="O211">
-        <v>11</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12883,12 +11613,6 @@
       <c r="M212">
         <v>15</v>
       </c>
-      <c r="N212">
-        <v>41.39315789473685</v>
-      </c>
-      <c r="O212">
-        <v>19</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12942,12 +11666,6 @@
       <c r="M213">
         <v>24</v>
       </c>
-      <c r="N213">
-        <v>89.16181818181818</v>
-      </c>
-      <c r="O213">
-        <v>11</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13001,12 +11719,6 @@
       <c r="M214">
         <v>16</v>
       </c>
-      <c r="N214">
-        <v>58.134</v>
-      </c>
-      <c r="O214">
-        <v>12</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13060,12 +11772,6 @@
       <c r="M215">
         <v>10</v>
       </c>
-      <c r="N215">
-        <v>73.38</v>
-      </c>
-      <c r="O215">
-        <v>12</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13119,12 +11825,6 @@
       <c r="M216">
         <v>22</v>
       </c>
-      <c r="N216">
-        <v>101.12625</v>
-      </c>
-      <c r="O216">
-        <v>16</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13178,12 +11878,6 @@
       <c r="M217">
         <v>10</v>
       </c>
-      <c r="N217">
-        <v>383.595</v>
-      </c>
-      <c r="O217">
-        <v>18</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13237,12 +11931,6 @@
       <c r="M218">
         <v>13</v>
       </c>
-      <c r="N218">
-        <v>25.38222222222222</v>
-      </c>
-      <c r="O218">
-        <v>18</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13296,12 +11984,6 @@
       <c r="M219">
         <v>8</v>
       </c>
-      <c r="N219">
-        <v>200.58</v>
-      </c>
-      <c r="O219">
-        <v>15</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13355,12 +12037,6 @@
       <c r="M220">
         <v>29</v>
       </c>
-      <c r="N220">
-        <v>144.76</v>
-      </c>
-      <c r="O220">
-        <v>19</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13414,12 +12090,6 @@
       <c r="M221">
         <v>9</v>
       </c>
-      <c r="N221">
-        <v>422.73</v>
-      </c>
-      <c r="O221">
-        <v>21</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13473,12 +12143,6 @@
       <c r="M222">
         <v>15</v>
       </c>
-      <c r="N222">
-        <v>455.0478571428571</v>
-      </c>
-      <c r="O222">
-        <v>14</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13532,12 +12196,6 @@
       <c r="M223">
         <v>4</v>
       </c>
-      <c r="N223">
-        <v>95.56294117647059</v>
-      </c>
-      <c r="O223">
-        <v>17</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13591,12 +12249,6 @@
       <c r="M224">
         <v>4</v>
       </c>
-      <c r="N224">
-        <v>48.44142857142857</v>
-      </c>
-      <c r="O224">
-        <v>7</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13650,12 +12302,6 @@
       <c r="M225">
         <v>12</v>
       </c>
-      <c r="N225">
-        <v>155.8438461538462</v>
-      </c>
-      <c r="O225">
-        <v>13</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13709,12 +12355,6 @@
       <c r="M226">
         <v>5</v>
       </c>
-      <c r="N226">
-        <v>115.04</v>
-      </c>
-      <c r="O226">
-        <v>1</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13768,12 +12408,6 @@
       <c r="M227">
         <v>8</v>
       </c>
-      <c r="N227">
-        <v>193.2863636363636</v>
-      </c>
-      <c r="O227">
-        <v>11</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13827,12 +12461,6 @@
       <c r="M228">
         <v>19</v>
       </c>
-      <c r="N228">
-        <v>428.46</v>
-      </c>
-      <c r="O228">
-        <v>1</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13886,12 +12514,6 @@
       <c r="M229">
         <v>9</v>
       </c>
-      <c r="N229">
-        <v>166.21</v>
-      </c>
-      <c r="O229">
-        <v>2</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13945,12 +12567,6 @@
       <c r="M230">
         <v>7</v>
       </c>
-      <c r="N230">
-        <v>73.8125</v>
-      </c>
-      <c r="O230">
-        <v>16</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14004,12 +12620,6 @@
       <c r="M231">
         <v>14</v>
       </c>
-      <c r="N231">
-        <v>198.28</v>
-      </c>
-      <c r="O231">
-        <v>15</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14063,12 +12673,6 @@
       <c r="M232">
         <v>19</v>
       </c>
-      <c r="N232">
-        <v>105.8615789473684</v>
-      </c>
-      <c r="O232">
-        <v>23</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14122,12 +12726,6 @@
       <c r="M233">
         <v>10</v>
       </c>
-      <c r="N233">
-        <v>228.4466666666667</v>
-      </c>
-      <c r="O233">
-        <v>8</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14181,12 +12779,6 @@
       <c r="M234">
         <v>14</v>
       </c>
-      <c r="N234">
-        <v>490.6319999999999</v>
-      </c>
-      <c r="O234">
-        <v>10</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14240,12 +12832,6 @@
       <c r="M235">
         <v>16</v>
       </c>
-      <c r="N235">
-        <v>286.123125</v>
-      </c>
-      <c r="O235">
-        <v>16</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14299,12 +12885,6 @@
       <c r="M236">
         <v>28</v>
       </c>
-      <c r="N236">
-        <v>348.3377777777778</v>
-      </c>
-      <c r="O236">
-        <v>9</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14358,12 +12938,6 @@
       <c r="M237">
         <v>12</v>
       </c>
-      <c r="N237">
-        <v>187.7490909090909</v>
-      </c>
-      <c r="O237">
-        <v>11</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14417,12 +12991,6 @@
       <c r="M238">
         <v>16</v>
       </c>
-      <c r="N238">
-        <v>339.064375</v>
-      </c>
-      <c r="O238">
-        <v>23</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14476,12 +13044,6 @@
       <c r="M239">
         <v>21</v>
       </c>
-      <c r="N239">
-        <v>56.595</v>
-      </c>
-      <c r="O239">
-        <v>2</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14535,12 +13097,6 @@
       <c r="M240">
         <v>28</v>
       </c>
-      <c r="N240">
-        <v>385.8895</v>
-      </c>
-      <c r="O240">
-        <v>34</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14594,12 +13150,6 @@
       <c r="M241">
         <v>27</v>
       </c>
-      <c r="N241">
-        <v>25.06</v>
-      </c>
-      <c r="O241">
-        <v>11</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14653,12 +13203,6 @@
       <c r="M242">
         <v>29</v>
       </c>
-      <c r="N242">
-        <v>163.5888235294118</v>
-      </c>
-      <c r="O242">
-        <v>18</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14712,12 +13256,6 @@
       <c r="M243">
         <v>24</v>
       </c>
-      <c r="N243">
-        <v>145.58</v>
-      </c>
-      <c r="O243">
-        <v>14</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14771,12 +13309,6 @@
       <c r="M244">
         <v>5</v>
       </c>
-      <c r="N244">
-        <v>134.2922222222222</v>
-      </c>
-      <c r="O244">
-        <v>9</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14830,12 +13362,6 @@
       <c r="M245">
         <v>12</v>
       </c>
-      <c r="N245">
-        <v>423.4144444444444</v>
-      </c>
-      <c r="O245">
-        <v>33</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14889,12 +13415,6 @@
       <c r="M246">
         <v>23</v>
       </c>
-      <c r="N246">
-        <v>20.61</v>
-      </c>
-      <c r="O246">
-        <v>9</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14948,12 +13468,6 @@
       <c r="M247">
         <v>10</v>
       </c>
-      <c r="N247">
-        <v>88.5690909090909</v>
-      </c>
-      <c r="O247">
-        <v>11</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -15007,12 +13521,6 @@
       <c r="M248">
         <v>22</v>
       </c>
-      <c r="N248">
-        <v>461.99</v>
-      </c>
-      <c r="O248">
-        <v>11</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -15066,12 +13574,6 @@
       <c r="M249">
         <v>12</v>
       </c>
-      <c r="N249">
-        <v>33.328</v>
-      </c>
-      <c r="O249">
-        <v>15</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15125,12 +13627,6 @@
       <c r="M250">
         <v>9</v>
       </c>
-      <c r="N250">
-        <v>83.2175</v>
-      </c>
-      <c r="O250">
-        <v>18</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15184,12 +13680,6 @@
       <c r="M251">
         <v>7</v>
       </c>
-      <c r="N251">
-        <v>36.34</v>
-      </c>
-      <c r="O251">
-        <v>13</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15243,12 +13733,6 @@
       <c r="M252">
         <v>22</v>
       </c>
-      <c r="N252">
-        <v>469.975</v>
-      </c>
-      <c r="O252">
-        <v>2</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15302,12 +13786,6 @@
       <c r="M253">
         <v>17</v>
       </c>
-      <c r="N253">
-        <v>113.0616666666667</v>
-      </c>
-      <c r="O253">
-        <v>25</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15361,12 +13839,6 @@
       <c r="M254">
         <v>27</v>
       </c>
-      <c r="N254">
-        <v>173.4338888888889</v>
-      </c>
-      <c r="O254">
-        <v>18</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -15420,12 +13892,6 @@
       <c r="M255">
         <v>11</v>
       </c>
-      <c r="N255">
-        <v>487.9164285714286</v>
-      </c>
-      <c r="O255">
-        <v>14</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -15479,12 +13945,6 @@
       <c r="M256">
         <v>6</v>
       </c>
-      <c r="N256">
-        <v>95.47</v>
-      </c>
-      <c r="O256">
-        <v>18</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15538,12 +13998,6 @@
       <c r="M257">
         <v>12</v>
       </c>
-      <c r="N257">
-        <v>82.79285714285713</v>
-      </c>
-      <c r="O257">
-        <v>7</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15597,12 +14051,6 @@
       <c r="M258">
         <v>3</v>
       </c>
-      <c r="N258">
-        <v>307.6533333333334</v>
-      </c>
-      <c r="O258">
-        <v>9</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -15656,12 +14104,6 @@
       <c r="M259">
         <v>21</v>
       </c>
-      <c r="N259">
-        <v>467.9323529411765</v>
-      </c>
-      <c r="O259">
-        <v>25</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15715,12 +14157,6 @@
       <c r="M260">
         <v>3</v>
       </c>
-      <c r="N260">
-        <v>286.6366666666667</v>
-      </c>
-      <c r="O260">
-        <v>19</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15774,12 +14210,6 @@
       <c r="M261">
         <v>24</v>
       </c>
-      <c r="N261">
-        <v>274.6966666666667</v>
-      </c>
-      <c r="O261">
-        <v>6</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15833,12 +14263,6 @@
       <c r="M262">
         <v>26</v>
       </c>
-      <c r="N262">
-        <v>40.9</v>
-      </c>
-      <c r="O262">
-        <v>28</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -15892,12 +14316,6 @@
       <c r="M263">
         <v>1</v>
       </c>
-      <c r="N263">
-        <v>84.67</v>
-      </c>
-      <c r="O263">
-        <v>4</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15951,12 +14369,6 @@
       <c r="M264">
         <v>19</v>
       </c>
-      <c r="N264">
-        <v>414.150625</v>
-      </c>
-      <c r="O264">
-        <v>16</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -16010,12 +14422,6 @@
       <c r="M265">
         <v>22</v>
       </c>
-      <c r="N265">
-        <v>30.0775</v>
-      </c>
-      <c r="O265">
-        <v>25</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -16069,12 +14475,6 @@
       <c r="M266">
         <v>13</v>
       </c>
-      <c r="N266">
-        <v>484.0766666666667</v>
-      </c>
-      <c r="O266">
-        <v>3</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -16128,12 +14528,6 @@
       <c r="M267">
         <v>18</v>
       </c>
-      <c r="N267">
-        <v>120.366</v>
-      </c>
-      <c r="O267">
-        <v>25</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -16187,12 +14581,6 @@
       <c r="M268">
         <v>10</v>
       </c>
-      <c r="N268">
-        <v>499.0933333333333</v>
-      </c>
-      <c r="O268">
-        <v>6</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -16246,12 +14634,6 @@
       <c r="M269">
         <v>31</v>
       </c>
-      <c r="N269">
-        <v>27.46727272727273</v>
-      </c>
-      <c r="O269">
-        <v>12</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -16305,12 +14687,6 @@
       <c r="M270">
         <v>29</v>
       </c>
-      <c r="N270">
-        <v>411.6205555555555</v>
-      </c>
-      <c r="O270">
-        <v>18</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -16364,12 +14740,6 @@
       <c r="M271">
         <v>2</v>
       </c>
-      <c r="N271">
-        <v>80.90181818181817</v>
-      </c>
-      <c r="O271">
-        <v>11</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -16423,12 +14793,6 @@
       <c r="M272">
         <v>17</v>
       </c>
-      <c r="N272">
-        <v>351.8994117647059</v>
-      </c>
-      <c r="O272">
-        <v>17</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -16482,12 +14846,6 @@
       <c r="M273">
         <v>9</v>
       </c>
-      <c r="N273">
-        <v>332.8038888888889</v>
-      </c>
-      <c r="O273">
-        <v>31</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -16541,12 +14899,6 @@
       <c r="M274">
         <v>17</v>
       </c>
-      <c r="N274">
-        <v>494.47</v>
-      </c>
-      <c r="O274">
-        <v>22</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16600,12 +14952,6 @@
       <c r="M275">
         <v>13</v>
       </c>
-      <c r="N275">
-        <v>307.8571428571428</v>
-      </c>
-      <c r="O275">
-        <v>18</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -16659,12 +15005,6 @@
       <c r="M276">
         <v>16</v>
       </c>
-      <c r="N276">
-        <v>250.4081818181818</v>
-      </c>
-      <c r="O276">
-        <v>11</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -16718,12 +15058,6 @@
       <c r="M277">
         <v>31</v>
       </c>
-      <c r="N277">
-        <v>41.90666666666667</v>
-      </c>
-      <c r="O277">
-        <v>24</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -16777,12 +15111,6 @@
       <c r="M278">
         <v>8</v>
       </c>
-      <c r="N278">
-        <v>369.7190909090909</v>
-      </c>
-      <c r="O278">
-        <v>11</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16836,12 +15164,6 @@
       <c r="M279">
         <v>3</v>
       </c>
-      <c r="N279">
-        <v>36.14363636363636</v>
-      </c>
-      <c r="O279">
-        <v>13</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -16895,12 +15217,6 @@
       <c r="M280">
         <v>25</v>
       </c>
-      <c r="N280">
-        <v>257.3815</v>
-      </c>
-      <c r="O280">
-        <v>36</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -16954,12 +15270,6 @@
       <c r="M281">
         <v>2</v>
       </c>
-      <c r="N281">
-        <v>72.86624999999999</v>
-      </c>
-      <c r="O281">
-        <v>13</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -17013,12 +15323,6 @@
       <c r="M282">
         <v>6</v>
       </c>
-      <c r="N282">
-        <v>321.3863157894737</v>
-      </c>
-      <c r="O282">
-        <v>34</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -17072,12 +15376,6 @@
       <c r="M283">
         <v>18</v>
       </c>
-      <c r="N283">
-        <v>44.85473684210526</v>
-      </c>
-      <c r="O283">
-        <v>34</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -17131,12 +15429,6 @@
       <c r="M284">
         <v>17</v>
       </c>
-      <c r="N284">
-        <v>493.5128571428572</v>
-      </c>
-      <c r="O284">
-        <v>7</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -17190,12 +15482,6 @@
       <c r="M285">
         <v>15</v>
       </c>
-      <c r="N285">
-        <v>337.888</v>
-      </c>
-      <c r="O285">
-        <v>5</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -17249,12 +15535,6 @@
       <c r="M286">
         <v>9</v>
       </c>
-      <c r="N286">
-        <v>328.22</v>
-      </c>
-      <c r="O286">
-        <v>16</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -17308,12 +15588,6 @@
       <c r="M287">
         <v>21</v>
       </c>
-      <c r="N287">
-        <v>384.58</v>
-      </c>
-      <c r="O287">
-        <v>6</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17367,12 +15641,6 @@
       <c r="M288">
         <v>18</v>
       </c>
-      <c r="N288">
-        <v>126.3233333333333</v>
-      </c>
-      <c r="O288">
-        <v>3</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -17426,12 +15694,6 @@
       <c r="M289">
         <v>23</v>
       </c>
-      <c r="N289">
-        <v>470.7</v>
-      </c>
-      <c r="O289">
-        <v>5</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -17485,12 +15747,6 @@
       <c r="M290">
         <v>27</v>
       </c>
-      <c r="N290">
-        <v>35.98142857142857</v>
-      </c>
-      <c r="O290">
-        <v>7</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -17544,12 +15800,6 @@
       <c r="M291">
         <v>24</v>
       </c>
-      <c r="N291">
-        <v>270.94</v>
-      </c>
-      <c r="O291">
-        <v>1</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -17603,12 +15853,6 @@
       <c r="M292">
         <v>7</v>
       </c>
-      <c r="N292">
-        <v>191.9</v>
-      </c>
-      <c r="O292">
-        <v>10</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -17662,12 +15906,6 @@
       <c r="M293">
         <v>21</v>
       </c>
-      <c r="N293">
-        <v>315.2766666666666</v>
-      </c>
-      <c r="O293">
-        <v>9</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -17721,12 +15959,6 @@
       <c r="M294">
         <v>5</v>
       </c>
-      <c r="N294">
-        <v>132.0807142857143</v>
-      </c>
-      <c r="O294">
-        <v>24</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -17780,12 +16012,6 @@
       <c r="M295">
         <v>27</v>
       </c>
-      <c r="N295">
-        <v>255.3653333333333</v>
-      </c>
-      <c r="O295">
-        <v>15</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -17839,12 +16065,6 @@
       <c r="M296">
         <v>16</v>
       </c>
-      <c r="N296">
-        <v>354.8513333333333</v>
-      </c>
-      <c r="O296">
-        <v>15</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -17898,12 +16118,6 @@
       <c r="M297">
         <v>18</v>
       </c>
-      <c r="N297">
-        <v>284.617</v>
-      </c>
-      <c r="O297">
-        <v>23</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -17957,12 +16171,6 @@
       <c r="M298">
         <v>8</v>
       </c>
-      <c r="N298">
-        <v>15.42714285714286</v>
-      </c>
-      <c r="O298">
-        <v>14</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -18016,12 +16224,6 @@
       <c r="M299">
         <v>3</v>
       </c>
-      <c r="N299">
-        <v>249.7</v>
-      </c>
-      <c r="O299">
-        <v>7</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -18075,12 +16277,6 @@
       <c r="M300">
         <v>24</v>
       </c>
-      <c r="N300">
-        <v>216.0575</v>
-      </c>
-      <c r="O300">
-        <v>4</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -18134,12 +16330,6 @@
       <c r="M301">
         <v>5</v>
       </c>
-      <c r="N301">
-        <v>48.73545454545455</v>
-      </c>
-      <c r="O301">
-        <v>29</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -18193,12 +16383,6 @@
       <c r="M302">
         <v>16</v>
       </c>
-      <c r="N302">
-        <v>21.9525</v>
-      </c>
-      <c r="O302">
-        <v>9</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -18252,12 +16436,6 @@
       <c r="M303">
         <v>21</v>
       </c>
-      <c r="N303">
-        <v>198.56</v>
-      </c>
-      <c r="O303">
-        <v>24</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -18311,12 +16489,6 @@
       <c r="M304">
         <v>4</v>
       </c>
-      <c r="N304">
-        <v>354.4040000000001</v>
-      </c>
-      <c r="O304">
-        <v>15</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -18370,12 +16542,6 @@
       <c r="M305">
         <v>19</v>
       </c>
-      <c r="N305">
-        <v>393.991</v>
-      </c>
-      <c r="O305">
-        <v>34</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -18429,12 +16595,6 @@
       <c r="M306">
         <v>11</v>
       </c>
-      <c r="N306">
-        <v>340.7666666666667</v>
-      </c>
-      <c r="O306">
-        <v>6</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -18488,12 +16648,6 @@
       <c r="M307">
         <v>8</v>
       </c>
-      <c r="N307">
-        <v>181.4944444444444</v>
-      </c>
-      <c r="O307">
-        <v>9</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -18547,12 +16701,6 @@
       <c r="M308">
         <v>3</v>
       </c>
-      <c r="N308">
-        <v>178.55</v>
-      </c>
-      <c r="O308">
-        <v>8</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -18606,12 +16754,6 @@
       <c r="M309">
         <v>22</v>
       </c>
-      <c r="N309">
-        <v>369.1833333333333</v>
-      </c>
-      <c r="O309">
-        <v>33</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -18665,12 +16807,6 @@
       <c r="M310">
         <v>14</v>
       </c>
-      <c r="N310">
-        <v>141.6472727272727</v>
-      </c>
-      <c r="O310">
-        <v>11</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -18724,12 +16860,6 @@
       <c r="M311">
         <v>18</v>
       </c>
-      <c r="N311">
-        <v>157.4171428571429</v>
-      </c>
-      <c r="O311">
-        <v>7</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -18783,12 +16913,6 @@
       <c r="M312">
         <v>27</v>
       </c>
-      <c r="N312">
-        <v>351.564</v>
-      </c>
-      <c r="O312">
-        <v>10</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -18842,12 +16966,6 @@
       <c r="M313">
         <v>7</v>
       </c>
-      <c r="N313">
-        <v>223.14</v>
-      </c>
-      <c r="O313">
-        <v>20</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -18901,12 +17019,6 @@
       <c r="M314">
         <v>8</v>
       </c>
-      <c r="N314">
-        <v>454.5890909090909</v>
-      </c>
-      <c r="O314">
-        <v>11</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -18960,12 +17072,6 @@
       <c r="M315">
         <v>9</v>
       </c>
-      <c r="N315">
-        <v>149.515</v>
-      </c>
-      <c r="O315">
-        <v>20</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -19019,12 +17125,6 @@
       <c r="M316">
         <v>4</v>
       </c>
-      <c r="N316">
-        <v>192.9773684210526</v>
-      </c>
-      <c r="O316">
-        <v>32</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -19078,12 +17178,6 @@
       <c r="M317">
         <v>22</v>
       </c>
-      <c r="N317">
-        <v>356.25</v>
-      </c>
-      <c r="O317">
-        <v>2</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -19137,12 +17231,6 @@
       <c r="M318">
         <v>27</v>
       </c>
-      <c r="N318">
-        <v>406.6300000000001</v>
-      </c>
-      <c r="O318">
-        <v>6</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -19196,12 +17284,6 @@
       <c r="M319">
         <v>18</v>
       </c>
-      <c r="N319">
-        <v>399.8969230769231</v>
-      </c>
-      <c r="O319">
-        <v>32</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -19255,12 +17337,6 @@
       <c r="M320">
         <v>12</v>
       </c>
-      <c r="N320">
-        <v>31.64818181818182</v>
-      </c>
-      <c r="O320">
-        <v>29</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -19314,12 +17390,6 @@
       <c r="M321">
         <v>24</v>
       </c>
-      <c r="N321">
-        <v>414.6692307692308</v>
-      </c>
-      <c r="O321">
-        <v>13</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -19373,12 +17443,6 @@
       <c r="M322">
         <v>17</v>
       </c>
-      <c r="N322">
-        <v>227.0625</v>
-      </c>
-      <c r="O322">
-        <v>14</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -19432,12 +17496,6 @@
       <c r="M323">
         <v>1</v>
       </c>
-      <c r="N323">
-        <v>142.3929411764706</v>
-      </c>
-      <c r="O323">
-        <v>26</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -19491,12 +17549,6 @@
       <c r="M324">
         <v>5</v>
       </c>
-      <c r="N324">
-        <v>309.6027777777778</v>
-      </c>
-      <c r="O324">
-        <v>56</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -19550,12 +17602,6 @@
       <c r="M325">
         <v>7</v>
       </c>
-      <c r="N325">
-        <v>25.30444444444445</v>
-      </c>
-      <c r="O325">
-        <v>56</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -19609,12 +17655,6 @@
       <c r="M326">
         <v>14</v>
       </c>
-      <c r="N326">
-        <v>96.02</v>
-      </c>
-      <c r="O326">
-        <v>2</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -19668,12 +17708,6 @@
       <c r="M327">
         <v>23</v>
       </c>
-      <c r="N327">
-        <v>353.715</v>
-      </c>
-      <c r="O327">
-        <v>19</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -19727,12 +17761,6 @@
       <c r="M328">
         <v>12</v>
       </c>
-      <c r="N328">
-        <v>98.38944444444445</v>
-      </c>
-      <c r="O328">
-        <v>40</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -19786,12 +17814,6 @@
       <c r="M329">
         <v>20</v>
       </c>
-      <c r="N329">
-        <v>364.64</v>
-      </c>
-      <c r="O329">
-        <v>4</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -19845,12 +17867,6 @@
       <c r="M330">
         <v>29</v>
       </c>
-      <c r="N330">
-        <v>137.0994117647059</v>
-      </c>
-      <c r="O330">
-        <v>17</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -19904,12 +17920,6 @@
       <c r="M331">
         <v>20</v>
       </c>
-      <c r="N331">
-        <v>202.58</v>
-      </c>
-      <c r="O331">
-        <v>4</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -19963,12 +17973,6 @@
       <c r="M332">
         <v>9</v>
       </c>
-      <c r="N332">
-        <v>394.4135714285714</v>
-      </c>
-      <c r="O332">
-        <v>16</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -20022,12 +18026,6 @@
       <c r="M333">
         <v>20</v>
       </c>
-      <c r="N333">
-        <v>318.6766666666667</v>
-      </c>
-      <c r="O333">
-        <v>18</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -20081,12 +18079,6 @@
       <c r="M334">
         <v>2</v>
       </c>
-      <c r="N334">
-        <v>138.78</v>
-      </c>
-      <c r="O334">
-        <v>1</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -20140,12 +18132,6 @@
       <c r="M335">
         <v>23</v>
       </c>
-      <c r="N335">
-        <v>353.394</v>
-      </c>
-      <c r="O335">
-        <v>10</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -20199,12 +18185,6 @@
       <c r="M336">
         <v>30</v>
       </c>
-      <c r="N336">
-        <v>105.06</v>
-      </c>
-      <c r="O336">
-        <v>2</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -20258,12 +18238,6 @@
       <c r="M337">
         <v>17</v>
       </c>
-      <c r="N337">
-        <v>254.7266666666667</v>
-      </c>
-      <c r="O337">
-        <v>6</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -20317,12 +18291,6 @@
       <c r="M338">
         <v>8</v>
       </c>
-      <c r="N338">
-        <v>267.68</v>
-      </c>
-      <c r="O338">
-        <v>16</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -20376,12 +18344,6 @@
       <c r="M339">
         <v>21</v>
       </c>
-      <c r="N339">
-        <v>488.5553333333334</v>
-      </c>
-      <c r="O339">
-        <v>33</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -20435,12 +18397,6 @@
       <c r="M340">
         <v>18</v>
       </c>
-      <c r="N340">
-        <v>183.0252631578947</v>
-      </c>
-      <c r="O340">
-        <v>19</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -20494,12 +18450,6 @@
       <c r="M341">
         <v>30</v>
       </c>
-      <c r="N341">
-        <v>456.02</v>
-      </c>
-      <c r="O341">
-        <v>29</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -20553,12 +18503,6 @@
       <c r="M342">
         <v>31</v>
       </c>
-      <c r="N342">
-        <v>83.855</v>
-      </c>
-      <c r="O342">
-        <v>14</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -20612,12 +18556,6 @@
       <c r="M343">
         <v>19</v>
       </c>
-      <c r="N343">
-        <v>243.7966666666667</v>
-      </c>
-      <c r="O343">
-        <v>15</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -20671,12 +18609,6 @@
       <c r="M344">
         <v>25</v>
       </c>
-      <c r="N344">
-        <v>452.7185000000001</v>
-      </c>
-      <c r="O344">
-        <v>21</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -20730,12 +18662,6 @@
       <c r="M345">
         <v>23</v>
       </c>
-      <c r="N345">
-        <v>323.2155555555556</v>
-      </c>
-      <c r="O345">
-        <v>18</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -20789,12 +18715,6 @@
       <c r="M346">
         <v>19</v>
       </c>
-      <c r="N346">
-        <v>115.7164705882353</v>
-      </c>
-      <c r="O346">
-        <v>17</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -20848,12 +18768,6 @@
       <c r="M347">
         <v>24</v>
       </c>
-      <c r="N347">
-        <v>340.5946153846153</v>
-      </c>
-      <c r="O347">
-        <v>31</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -20907,12 +18821,6 @@
       <c r="M348">
         <v>11</v>
       </c>
-      <c r="N348">
-        <v>16.41</v>
-      </c>
-      <c r="O348">
-        <v>22</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -20966,12 +18874,6 @@
       <c r="M349">
         <v>28</v>
       </c>
-      <c r="N349">
-        <v>148.7295</v>
-      </c>
-      <c r="O349">
-        <v>20</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -21025,12 +18927,6 @@
       <c r="M350">
         <v>8</v>
       </c>
-      <c r="N350">
-        <v>146.4066666666667</v>
-      </c>
-      <c r="O350">
-        <v>6</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -21084,12 +18980,6 @@
       <c r="M351">
         <v>1</v>
       </c>
-      <c r="N351">
-        <v>78.65363636363637</v>
-      </c>
-      <c r="O351">
-        <v>49</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -21143,12 +19033,6 @@
       <c r="M352">
         <v>3</v>
       </c>
-      <c r="N352">
-        <v>215.7428571428572</v>
-      </c>
-      <c r="O352">
-        <v>14</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -21202,12 +19086,6 @@
       <c r="M353">
         <v>9</v>
       </c>
-      <c r="N353">
-        <v>193.88</v>
-      </c>
-      <c r="O353">
-        <v>3</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -21261,12 +19139,6 @@
       <c r="M354">
         <v>18</v>
       </c>
-      <c r="N354">
-        <v>197.8621052631579</v>
-      </c>
-      <c r="O354">
-        <v>19</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -21320,12 +19192,6 @@
       <c r="M355">
         <v>11</v>
       </c>
-      <c r="N355">
-        <v>458.9522222222222</v>
-      </c>
-      <c r="O355">
-        <v>15</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -21379,12 +19245,6 @@
       <c r="M356">
         <v>17</v>
       </c>
-      <c r="N356">
-        <v>331.3126315789473</v>
-      </c>
-      <c r="O356">
-        <v>52</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -21438,12 +19298,6 @@
       <c r="M357">
         <v>13</v>
       </c>
-      <c r="N357">
-        <v>85.30733333333333</v>
-      </c>
-      <c r="O357">
-        <v>15</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -21497,12 +19351,6 @@
       <c r="M358">
         <v>28</v>
       </c>
-      <c r="N358">
-        <v>479.0622222222223</v>
-      </c>
-      <c r="O358">
-        <v>26</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -21556,12 +19404,6 @@
       <c r="M359">
         <v>10</v>
       </c>
-      <c r="N359">
-        <v>418.9014285714285</v>
-      </c>
-      <c r="O359">
-        <v>7</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -21615,12 +19457,6 @@
       <c r="M360">
         <v>27</v>
       </c>
-      <c r="N360">
-        <v>405.0833333333333</v>
-      </c>
-      <c r="O360">
-        <v>17</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -21674,12 +19510,6 @@
       <c r="M361">
         <v>31</v>
       </c>
-      <c r="N361">
-        <v>30.80272727272727</v>
-      </c>
-      <c r="O361">
-        <v>20</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -21733,12 +19563,6 @@
       <c r="M362">
         <v>11</v>
       </c>
-      <c r="N362">
-        <v>362.78</v>
-      </c>
-      <c r="O362">
-        <v>1</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -21792,12 +19616,6 @@
       <c r="M363">
         <v>25</v>
       </c>
-      <c r="N363">
-        <v>270.36</v>
-      </c>
-      <c r="O363">
-        <v>10</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -21851,12 +19669,6 @@
       <c r="M364">
         <v>2</v>
       </c>
-      <c r="N364">
-        <v>58.43</v>
-      </c>
-      <c r="O364">
-        <v>13</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -21910,12 +19722,6 @@
       <c r="M365">
         <v>13</v>
       </c>
-      <c r="N365">
-        <v>254.9769230769231</v>
-      </c>
-      <c r="O365">
-        <v>13</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -21969,12 +19775,6 @@
       <c r="M366">
         <v>21</v>
       </c>
-      <c r="N366">
-        <v>449.04</v>
-      </c>
-      <c r="O366">
-        <v>14</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -22028,12 +19828,6 @@
       <c r="M367">
         <v>16</v>
       </c>
-      <c r="N367">
-        <v>149.575625</v>
-      </c>
-      <c r="O367">
-        <v>16</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -22087,12 +19881,6 @@
       <c r="M368">
         <v>26</v>
       </c>
-      <c r="N368">
-        <v>245.74</v>
-      </c>
-      <c r="O368">
-        <v>8</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -22146,12 +19934,6 @@
       <c r="M369">
         <v>12</v>
       </c>
-      <c r="N369">
-        <v>176.8766666666667</v>
-      </c>
-      <c r="O369">
-        <v>9</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -22205,12 +19987,6 @@
       <c r="M370">
         <v>24</v>
       </c>
-      <c r="N370">
-        <v>352.6733333333333</v>
-      </c>
-      <c r="O370">
-        <v>23</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -22264,12 +20040,6 @@
       <c r="M371">
         <v>27</v>
       </c>
-      <c r="N371">
-        <v>279.8966666666667</v>
-      </c>
-      <c r="O371">
-        <v>6</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -22323,12 +20093,6 @@
       <c r="M372">
         <v>3</v>
       </c>
-      <c r="N372">
-        <v>100.6068421052632</v>
-      </c>
-      <c r="O372">
-        <v>27</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -22382,12 +20146,6 @@
       <c r="M373">
         <v>7</v>
       </c>
-      <c r="N373">
-        <v>323.80125</v>
-      </c>
-      <c r="O373">
-        <v>36</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -22441,12 +20199,6 @@
       <c r="M374">
         <v>1</v>
       </c>
-      <c r="N374">
-        <v>355.105</v>
-      </c>
-      <c r="O374">
-        <v>8</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -22500,12 +20252,6 @@
       <c r="M375">
         <v>29</v>
       </c>
-      <c r="N375">
-        <v>339.5033333333333</v>
-      </c>
-      <c r="O375">
-        <v>3</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -22559,12 +20305,6 @@
       <c r="M376">
         <v>30</v>
       </c>
-      <c r="N376">
-        <v>430.625</v>
-      </c>
-      <c r="O376">
-        <v>8</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -22618,12 +20358,6 @@
       <c r="M377">
         <v>24</v>
       </c>
-      <c r="N377">
-        <v>156.855</v>
-      </c>
-      <c r="O377">
-        <v>20</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -22677,12 +20411,6 @@
       <c r="M378">
         <v>5</v>
       </c>
-      <c r="N378">
-        <v>471.1</v>
-      </c>
-      <c r="O378">
-        <v>12</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -22736,12 +20464,6 @@
       <c r="M379">
         <v>30</v>
       </c>
-      <c r="N379">
-        <v>316.1977777777778</v>
-      </c>
-      <c r="O379">
-        <v>28</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -22795,12 +20517,6 @@
       <c r="M380">
         <v>23</v>
       </c>
-      <c r="N380">
-        <v>484.76</v>
-      </c>
-      <c r="O380">
-        <v>4</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -22854,12 +20570,6 @@
       <c r="M381">
         <v>2</v>
       </c>
-      <c r="N381">
-        <v>487.6075</v>
-      </c>
-      <c r="O381">
-        <v>8</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -22913,12 +20623,6 @@
       <c r="M382">
         <v>27</v>
       </c>
-      <c r="N382">
-        <v>185.5271428571429</v>
-      </c>
-      <c r="O382">
-        <v>23</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -22972,12 +20676,6 @@
       <c r="M383">
         <v>13</v>
       </c>
-      <c r="N383">
-        <v>255.055</v>
-      </c>
-      <c r="O383">
-        <v>2</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -23031,12 +20729,6 @@
       <c r="M384">
         <v>9</v>
       </c>
-      <c r="N384">
-        <v>22.902</v>
-      </c>
-      <c r="O384">
-        <v>25</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -23090,12 +20782,6 @@
       <c r="M385">
         <v>10</v>
       </c>
-      <c r="N385">
-        <v>466.735</v>
-      </c>
-      <c r="O385">
-        <v>10</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -23149,12 +20835,6 @@
       <c r="M386">
         <v>22</v>
       </c>
-      <c r="N386">
-        <v>418.39375</v>
-      </c>
-      <c r="O386">
-        <v>8</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -23208,12 +20888,6 @@
       <c r="M387">
         <v>2</v>
       </c>
-      <c r="N387">
-        <v>245.2266666666667</v>
-      </c>
-      <c r="O387">
-        <v>12</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -23267,12 +20941,6 @@
       <c r="M388">
         <v>15</v>
       </c>
-      <c r="N388">
-        <v>252.57875</v>
-      </c>
-      <c r="O388">
-        <v>8</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -23326,12 +20994,6 @@
       <c r="M389">
         <v>14</v>
       </c>
-      <c r="N389">
-        <v>428.9315384615384</v>
-      </c>
-      <c r="O389">
-        <v>24</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -23385,12 +21047,6 @@
       <c r="M390">
         <v>24</v>
       </c>
-      <c r="N390">
-        <v>247.54</v>
-      </c>
-      <c r="O390">
-        <v>14</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -23444,12 +21100,6 @@
       <c r="M391">
         <v>21</v>
       </c>
-      <c r="N391">
-        <v>27.66222222222222</v>
-      </c>
-      <c r="O391">
-        <v>9</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -23503,12 +21153,6 @@
       <c r="M392">
         <v>3</v>
       </c>
-      <c r="N392">
-        <v>87.8815</v>
-      </c>
-      <c r="O392">
-        <v>49</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -23562,12 +21206,6 @@
       <c r="M393">
         <v>6</v>
       </c>
-      <c r="N393">
-        <v>345.2375</v>
-      </c>
-      <c r="O393">
-        <v>8</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -23621,12 +21259,6 @@
       <c r="M394">
         <v>1</v>
       </c>
-      <c r="N394">
-        <v>138.8257142857143</v>
-      </c>
-      <c r="O394">
-        <v>7</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -23680,12 +21312,6 @@
       <c r="M395">
         <v>5</v>
       </c>
-      <c r="N395">
-        <v>11.7975</v>
-      </c>
-      <c r="O395">
-        <v>16</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -23739,12 +21365,6 @@
       <c r="M396">
         <v>19</v>
       </c>
-      <c r="N396">
-        <v>188.256</v>
-      </c>
-      <c r="O396">
-        <v>5</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -23798,12 +21418,6 @@
       <c r="M397">
         <v>6</v>
       </c>
-      <c r="N397">
-        <v>340.5333333333334</v>
-      </c>
-      <c r="O397">
-        <v>20</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -23857,12 +21471,6 @@
       <c r="M398">
         <v>15</v>
       </c>
-      <c r="N398">
-        <v>416.3333333333333</v>
-      </c>
-      <c r="O398">
-        <v>17</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -23916,12 +21524,6 @@
       <c r="M399">
         <v>11</v>
       </c>
-      <c r="N399">
-        <v>36.285</v>
-      </c>
-      <c r="O399">
-        <v>2</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -23975,12 +21577,6 @@
       <c r="M400">
         <v>25</v>
       </c>
-      <c r="N400">
-        <v>442.7915</v>
-      </c>
-      <c r="O400">
-        <v>20</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -24034,12 +21630,6 @@
       <c r="M401">
         <v>18</v>
       </c>
-      <c r="N401">
-        <v>200.2778947368421</v>
-      </c>
-      <c r="O401">
-        <v>24</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -24093,12 +21683,6 @@
       <c r="M402">
         <v>25</v>
       </c>
-      <c r="N402">
-        <v>331.7373333333334</v>
-      </c>
-      <c r="O402">
-        <v>15</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -24152,12 +21736,6 @@
       <c r="M403">
         <v>30</v>
       </c>
-      <c r="N403">
-        <v>128.375</v>
-      </c>
-      <c r="O403">
-        <v>8</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -24211,12 +21789,6 @@
       <c r="M404">
         <v>24</v>
       </c>
-      <c r="N404">
-        <v>266.5877777777778</v>
-      </c>
-      <c r="O404">
-        <v>9</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -24270,12 +21842,6 @@
       <c r="M405">
         <v>5</v>
       </c>
-      <c r="N405">
-        <v>479.9646153846154</v>
-      </c>
-      <c r="O405">
-        <v>33</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -24329,12 +21895,6 @@
       <c r="M406">
         <v>10</v>
       </c>
-      <c r="N406">
-        <v>475.6411764705882</v>
-      </c>
-      <c r="O406">
-        <v>17</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -24388,12 +21948,6 @@
       <c r="M407">
         <v>13</v>
       </c>
-      <c r="N407">
-        <v>267.615</v>
-      </c>
-      <c r="O407">
-        <v>6</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -24447,12 +22001,6 @@
       <c r="M408">
         <v>4</v>
       </c>
-      <c r="N408">
-        <v>339.2192857142857</v>
-      </c>
-      <c r="O408">
-        <v>32</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -24506,12 +22054,6 @@
       <c r="M409">
         <v>30</v>
       </c>
-      <c r="N409">
-        <v>213.19375</v>
-      </c>
-      <c r="O409">
-        <v>8</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -24565,12 +22107,6 @@
       <c r="M410">
         <v>19</v>
       </c>
-      <c r="N410">
-        <v>170.5655555555555</v>
-      </c>
-      <c r="O410">
-        <v>9</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -24624,12 +22160,6 @@
       <c r="M411">
         <v>2</v>
       </c>
-      <c r="N411">
-        <v>113.9566666666667</v>
-      </c>
-      <c r="O411">
-        <v>12</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -24683,12 +22213,6 @@
       <c r="M412">
         <v>10</v>
       </c>
-      <c r="N412">
-        <v>499.24</v>
-      </c>
-      <c r="O412">
-        <v>2</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -24742,12 +22266,6 @@
       <c r="M413">
         <v>11</v>
       </c>
-      <c r="N413">
-        <v>188.024</v>
-      </c>
-      <c r="O413">
-        <v>34</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -24801,12 +22319,6 @@
       <c r="M414">
         <v>13</v>
       </c>
-      <c r="N414">
-        <v>48.045</v>
-      </c>
-      <c r="O414">
-        <v>19</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -24860,12 +22372,6 @@
       <c r="M415">
         <v>21</v>
       </c>
-      <c r="N415">
-        <v>395.5116666666667</v>
-      </c>
-      <c r="O415">
-        <v>6</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -24919,12 +22425,6 @@
       <c r="M416">
         <v>21</v>
       </c>
-      <c r="N416">
-        <v>400.982</v>
-      </c>
-      <c r="O416">
-        <v>24</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -24978,12 +22478,6 @@
       <c r="M417">
         <v>26</v>
       </c>
-      <c r="N417">
-        <v>325.137</v>
-      </c>
-      <c r="O417">
-        <v>70</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -25037,12 +22531,6 @@
       <c r="M418">
         <v>12</v>
       </c>
-      <c r="N418">
-        <v>409.70375</v>
-      </c>
-      <c r="O418">
-        <v>8</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -25096,12 +22584,6 @@
       <c r="M419">
         <v>13</v>
       </c>
-      <c r="N419">
-        <v>15.45833333333333</v>
-      </c>
-      <c r="O419">
-        <v>6</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -25155,12 +22637,6 @@
       <c r="M420">
         <v>26</v>
       </c>
-      <c r="N420">
-        <v>278.065</v>
-      </c>
-      <c r="O420">
-        <v>2</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -25214,12 +22690,6 @@
       <c r="M421">
         <v>13</v>
       </c>
-      <c r="N421">
-        <v>32.01909090909091</v>
-      </c>
-      <c r="O421">
-        <v>11</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -25273,12 +22743,6 @@
       <c r="M422">
         <v>6</v>
       </c>
-      <c r="N422">
-        <v>436.6666666666667</v>
-      </c>
-      <c r="O422">
-        <v>9</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -25332,12 +22796,6 @@
       <c r="M423">
         <v>16</v>
       </c>
-      <c r="N423">
-        <v>42.48090909090909</v>
-      </c>
-      <c r="O423">
-        <v>11</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -25391,12 +22849,6 @@
       <c r="M424">
         <v>22</v>
       </c>
-      <c r="N424">
-        <v>246.99</v>
-      </c>
-      <c r="O424">
-        <v>12</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -25450,12 +22902,6 @@
       <c r="M425">
         <v>8</v>
       </c>
-      <c r="N425">
-        <v>473.9844444444444</v>
-      </c>
-      <c r="O425">
-        <v>22</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -25509,12 +22955,6 @@
       <c r="M426">
         <v>13</v>
       </c>
-      <c r="N426">
-        <v>479.1850000000001</v>
-      </c>
-      <c r="O426">
-        <v>20</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -25568,12 +23008,6 @@
       <c r="M427">
         <v>30</v>
       </c>
-      <c r="N427">
-        <v>321.145</v>
-      </c>
-      <c r="O427">
-        <v>13</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -25627,12 +23061,6 @@
       <c r="M428">
         <v>11</v>
       </c>
-      <c r="N428">
-        <v>487.0755555555556</v>
-      </c>
-      <c r="O428">
-        <v>22</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -25686,12 +23114,6 @@
       <c r="M429">
         <v>18</v>
       </c>
-      <c r="N429">
-        <v>192.5</v>
-      </c>
-      <c r="O429">
-        <v>1</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -25745,12 +23167,6 @@
       <c r="M430">
         <v>19</v>
       </c>
-      <c r="N430">
-        <v>56.96555555555556</v>
-      </c>
-      <c r="O430">
-        <v>32</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -25804,12 +23220,6 @@
       <c r="M431">
         <v>21</v>
       </c>
-      <c r="N431">
-        <v>300.654</v>
-      </c>
-      <c r="O431">
-        <v>30</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -25863,12 +23273,6 @@
       <c r="M432">
         <v>4</v>
       </c>
-      <c r="N432">
-        <v>383.1227272727273</v>
-      </c>
-      <c r="O432">
-        <v>19</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -25922,12 +23326,6 @@
       <c r="M433">
         <v>7</v>
       </c>
-      <c r="N433">
-        <v>94.71285714285715</v>
-      </c>
-      <c r="O433">
-        <v>7</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -25981,12 +23379,6 @@
       <c r="M434">
         <v>20</v>
       </c>
-      <c r="N434">
-        <v>123.5961538461538</v>
-      </c>
-      <c r="O434">
-        <v>28</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -26040,12 +23432,6 @@
       <c r="M435">
         <v>22</v>
       </c>
-      <c r="N435">
-        <v>384.3675</v>
-      </c>
-      <c r="O435">
-        <v>12</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -26099,12 +23485,6 @@
       <c r="M436">
         <v>28</v>
       </c>
-      <c r="N436">
-        <v>149.0610526315789</v>
-      </c>
-      <c r="O436">
-        <v>19</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -26158,12 +23538,6 @@
       <c r="M437">
         <v>6</v>
       </c>
-      <c r="N437">
-        <v>19.645</v>
-      </c>
-      <c r="O437">
-        <v>8</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -26217,12 +23591,6 @@
       <c r="M438">
         <v>29</v>
       </c>
-      <c r="N438">
-        <v>186.8794736842105</v>
-      </c>
-      <c r="O438">
-        <v>19</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -26276,12 +23644,6 @@
       <c r="M439">
         <v>19</v>
       </c>
-      <c r="N439">
-        <v>264.38</v>
-      </c>
-      <c r="O439">
-        <v>3</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -26335,12 +23697,6 @@
       <c r="M440">
         <v>23</v>
       </c>
-      <c r="N440">
-        <v>52.325</v>
-      </c>
-      <c r="O440">
-        <v>45</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -26394,12 +23750,6 @@
       <c r="M441">
         <v>5</v>
       </c>
-      <c r="N441">
-        <v>161.15</v>
-      </c>
-      <c r="O441">
-        <v>13</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -26453,12 +23803,6 @@
       <c r="M442">
         <v>11</v>
       </c>
-      <c r="N442">
-        <v>325.6673684210526</v>
-      </c>
-      <c r="O442">
-        <v>19</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -26512,12 +23856,6 @@
       <c r="M443">
         <v>10</v>
       </c>
-      <c r="N443">
-        <v>206.5007142857143</v>
-      </c>
-      <c r="O443">
-        <v>14</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -26571,12 +23909,6 @@
       <c r="M444">
         <v>9</v>
       </c>
-      <c r="N444">
-        <v>429.7795</v>
-      </c>
-      <c r="O444">
-        <v>30</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -26630,12 +23962,6 @@
       <c r="M445">
         <v>12</v>
       </c>
-      <c r="N445">
-        <v>107.0973333333333</v>
-      </c>
-      <c r="O445">
-        <v>15</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -26689,12 +24015,6 @@
       <c r="M446">
         <v>11</v>
       </c>
-      <c r="N446">
-        <v>28.18571428571429</v>
-      </c>
-      <c r="O446">
-        <v>12</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -26748,12 +24068,6 @@
       <c r="M447">
         <v>18</v>
       </c>
-      <c r="N447">
-        <v>248.36</v>
-      </c>
-      <c r="O447">
-        <v>2</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -26807,12 +24121,6 @@
       <c r="M448">
         <v>22</v>
       </c>
-      <c r="N448">
-        <v>163.958947368421</v>
-      </c>
-      <c r="O448">
-        <v>45</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -26866,12 +24174,6 @@
       <c r="M449">
         <v>30</v>
       </c>
-      <c r="N449">
-        <v>321.2790909090909</v>
-      </c>
-      <c r="O449">
-        <v>11</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -26925,12 +24227,6 @@
       <c r="M450">
         <v>21</v>
       </c>
-      <c r="N450">
-        <v>272.2816666666666</v>
-      </c>
-      <c r="O450">
-        <v>18</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -26984,12 +24280,6 @@
       <c r="M451">
         <v>11</v>
       </c>
-      <c r="N451">
-        <v>252.8614285714286</v>
-      </c>
-      <c r="O451">
-        <v>7</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -27043,12 +24333,6 @@
       <c r="M452">
         <v>17</v>
       </c>
-      <c r="N452">
-        <v>125.6125</v>
-      </c>
-      <c r="O452">
-        <v>16</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -27102,12 +24386,6 @@
       <c r="M453">
         <v>25</v>
       </c>
-      <c r="N453">
-        <v>302.1645454545455</v>
-      </c>
-      <c r="O453">
-        <v>11</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -27161,12 +24439,6 @@
       <c r="M454">
         <v>11</v>
       </c>
-      <c r="N454">
-        <v>190.195</v>
-      </c>
-      <c r="O454">
-        <v>6</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -27220,12 +24492,6 @@
       <c r="M455">
         <v>17</v>
       </c>
-      <c r="N455">
-        <v>121.9427777777778</v>
-      </c>
-      <c r="O455">
-        <v>32</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -27279,12 +24545,6 @@
       <c r="M456">
         <v>12</v>
       </c>
-      <c r="N456">
-        <v>103.23</v>
-      </c>
-      <c r="O456">
-        <v>1</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -27338,12 +24598,6 @@
       <c r="M457">
         <v>23</v>
       </c>
-      <c r="N457">
-        <v>59.5125</v>
-      </c>
-      <c r="O457">
-        <v>4</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -27397,12 +24651,6 @@
       <c r="M458">
         <v>18</v>
       </c>
-      <c r="N458">
-        <v>64.95</v>
-      </c>
-      <c r="O458">
-        <v>1</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -27456,12 +24704,6 @@
       <c r="M459">
         <v>31</v>
       </c>
-      <c r="N459">
-        <v>261.6</v>
-      </c>
-      <c r="O459">
-        <v>6</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -27515,12 +24757,6 @@
       <c r="M460">
         <v>2</v>
       </c>
-      <c r="N460">
-        <v>140.0761538461539</v>
-      </c>
-      <c r="O460">
-        <v>13</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -27574,12 +24810,6 @@
       <c r="M461">
         <v>15</v>
       </c>
-      <c r="N461">
-        <v>428.144</v>
-      </c>
-      <c r="O461">
-        <v>15</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -27633,12 +24863,6 @@
       <c r="M462">
         <v>2</v>
       </c>
-      <c r="N462">
-        <v>187.8458333333333</v>
-      </c>
-      <c r="O462">
-        <v>12</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -27692,12 +24916,6 @@
       <c r="M463">
         <v>19</v>
       </c>
-      <c r="N463">
-        <v>491.6</v>
-      </c>
-      <c r="O463">
-        <v>24</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -27751,12 +24969,6 @@
       <c r="M464">
         <v>14</v>
       </c>
-      <c r="N464">
-        <v>95.17916666666667</v>
-      </c>
-      <c r="O464">
-        <v>21</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -27810,12 +25022,6 @@
       <c r="M465">
         <v>27</v>
       </c>
-      <c r="N465">
-        <v>194.393125</v>
-      </c>
-      <c r="O465">
-        <v>70</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -27869,12 +25075,6 @@
       <c r="M466">
         <v>8</v>
       </c>
-      <c r="N466">
-        <v>260.0161111111111</v>
-      </c>
-      <c r="O466">
-        <v>18</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -27928,12 +25128,6 @@
       <c r="M467">
         <v>4</v>
       </c>
-      <c r="N467">
-        <v>382.4133333333333</v>
-      </c>
-      <c r="O467">
-        <v>15</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -27987,12 +25181,6 @@
       <c r="M468">
         <v>28</v>
       </c>
-      <c r="N468">
-        <v>10.33571428571429</v>
-      </c>
-      <c r="O468">
-        <v>7</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -28046,12 +25234,6 @@
       <c r="M469">
         <v>30</v>
       </c>
-      <c r="N469">
-        <v>142.43</v>
-      </c>
-      <c r="O469">
-        <v>21</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -28105,12 +25287,6 @@
       <c r="M470">
         <v>24</v>
       </c>
-      <c r="N470">
-        <v>338.6054545454545</v>
-      </c>
-      <c r="O470">
-        <v>25</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -28164,12 +25340,6 @@
       <c r="M471">
         <v>1</v>
       </c>
-      <c r="N471">
-        <v>254.6483333333333</v>
-      </c>
-      <c r="O471">
-        <v>6</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -28223,12 +25393,6 @@
       <c r="M472">
         <v>12</v>
       </c>
-      <c r="N472">
-        <v>137.06</v>
-      </c>
-      <c r="O472">
-        <v>3</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -28282,12 +25446,6 @@
       <c r="M473">
         <v>7</v>
       </c>
-      <c r="N473">
-        <v>260.1544444444444</v>
-      </c>
-      <c r="O473">
-        <v>18</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -28341,12 +25499,6 @@
       <c r="M474">
         <v>8</v>
       </c>
-      <c r="N474">
-        <v>357.74</v>
-      </c>
-      <c r="O474">
-        <v>1</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -28400,12 +25552,6 @@
       <c r="M475">
         <v>17</v>
       </c>
-      <c r="N475">
-        <v>13.704</v>
-      </c>
-      <c r="O475">
-        <v>5</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -28459,12 +25605,6 @@
       <c r="M476">
         <v>13</v>
       </c>
-      <c r="N476">
-        <v>279.984</v>
-      </c>
-      <c r="O476">
-        <v>28</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -28518,12 +25658,6 @@
       <c r="M477">
         <v>10</v>
       </c>
-      <c r="N477">
-        <v>471.4785714285714</v>
-      </c>
-      <c r="O477">
-        <v>14</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -28577,12 +25711,6 @@
       <c r="M478">
         <v>29</v>
       </c>
-      <c r="N478">
-        <v>128.9726315789474</v>
-      </c>
-      <c r="O478">
-        <v>19</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -28636,12 +25764,6 @@
       <c r="M479">
         <v>18</v>
       </c>
-      <c r="N479">
-        <v>33.94666666666667</v>
-      </c>
-      <c r="O479">
-        <v>16</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -28695,12 +25817,6 @@
       <c r="M480">
         <v>17</v>
       </c>
-      <c r="N480">
-        <v>305.845</v>
-      </c>
-      <c r="O480">
-        <v>11</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -28754,12 +25870,6 @@
       <c r="M481">
         <v>21</v>
       </c>
-      <c r="N481">
-        <v>112.754</v>
-      </c>
-      <c r="O481">
-        <v>49</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -28813,12 +25923,6 @@
       <c r="M482">
         <v>10</v>
       </c>
-      <c r="N482">
-        <v>441.4926666666667</v>
-      </c>
-      <c r="O482">
-        <v>15</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -28872,12 +25976,6 @@
       <c r="M483">
         <v>5</v>
       </c>
-      <c r="N483">
-        <v>335.448</v>
-      </c>
-      <c r="O483">
-        <v>13</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -28931,12 +26029,6 @@
       <c r="M484">
         <v>22</v>
       </c>
-      <c r="N484">
-        <v>179.61</v>
-      </c>
-      <c r="O484">
-        <v>1</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -28990,12 +26082,6 @@
       <c r="M485">
         <v>1</v>
       </c>
-      <c r="N485">
-        <v>349.5833333333333</v>
-      </c>
-      <c r="O485">
-        <v>12</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -29049,12 +26135,6 @@
       <c r="M486">
         <v>14</v>
       </c>
-      <c r="N486">
-        <v>329.0977777777778</v>
-      </c>
-      <c r="O486">
-        <v>9</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -29108,12 +26188,6 @@
       <c r="M487">
         <v>5</v>
       </c>
-      <c r="N487">
-        <v>11.54</v>
-      </c>
-      <c r="O487">
-        <v>3</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -29167,12 +26241,6 @@
       <c r="M488">
         <v>15</v>
       </c>
-      <c r="N488">
-        <v>56.76555555555555</v>
-      </c>
-      <c r="O488">
-        <v>18</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -29226,12 +26294,6 @@
       <c r="M489">
         <v>16</v>
       </c>
-      <c r="N489">
-        <v>38.225</v>
-      </c>
-      <c r="O489">
-        <v>17</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -29285,12 +26347,6 @@
       <c r="M490">
         <v>21</v>
       </c>
-      <c r="N490">
-        <v>15.76421052631579</v>
-      </c>
-      <c r="O490">
-        <v>19</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -29344,12 +26400,6 @@
       <c r="M491">
         <v>5</v>
       </c>
-      <c r="N491">
-        <v>439.5664705882353</v>
-      </c>
-      <c r="O491">
-        <v>17</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -29403,12 +26453,6 @@
       <c r="M492">
         <v>29</v>
       </c>
-      <c r="N492">
-        <v>492.3163636363636</v>
-      </c>
-      <c r="O492">
-        <v>11</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -29462,12 +26506,6 @@
       <c r="M493">
         <v>19</v>
       </c>
-      <c r="N493">
-        <v>437.4166666666667</v>
-      </c>
-      <c r="O493">
-        <v>12</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -29521,12 +26559,6 @@
       <c r="M494">
         <v>14</v>
       </c>
-      <c r="N494">
-        <v>59.828</v>
-      </c>
-      <c r="O494">
-        <v>9</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -29580,12 +26612,6 @@
       <c r="M495">
         <v>25</v>
       </c>
-      <c r="N495">
-        <v>187.5645454545455</v>
-      </c>
-      <c r="O495">
-        <v>27</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -29639,12 +26665,6 @@
       <c r="M496">
         <v>14</v>
       </c>
-      <c r="N496">
-        <v>377.605</v>
-      </c>
-      <c r="O496">
-        <v>18</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -29698,12 +26718,6 @@
       <c r="M497">
         <v>11</v>
       </c>
-      <c r="N497">
-        <v>346.9815</v>
-      </c>
-      <c r="O497">
-        <v>22</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -29757,12 +26771,6 @@
       <c r="M498">
         <v>8</v>
       </c>
-      <c r="N498">
-        <v>12.96166666666667</v>
-      </c>
-      <c r="O498">
-        <v>12</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -29816,12 +26824,6 @@
       <c r="M499">
         <v>20</v>
       </c>
-      <c r="N499">
-        <v>340.1585714285715</v>
-      </c>
-      <c r="O499">
-        <v>34</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -29875,12 +26877,6 @@
       <c r="M500">
         <v>4</v>
       </c>
-      <c r="N500">
-        <v>279.5123529411765</v>
-      </c>
-      <c r="O500">
-        <v>31</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -29933,12 +26929,6 @@
       </c>
       <c r="M501">
         <v>28</v>
-      </c>
-      <c r="N501">
-        <v>37.57133333333334</v>
-      </c>
-      <c r="O501">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
